--- a/Mapeamento de uso de IA nos processos .xlsx
+++ b/Mapeamento de uso de IA nos processos .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe_rossatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E836F6B6-AA87-4388-BAEF-94A5FAA8A68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC4BCD-56D0-46F0-B8F8-4A0F4B332763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3938B2CD-D01D-4623-8162-D80B751FC53B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="912">
   <si>
     <t>Área</t>
   </si>
@@ -2741,6 +2741,57 @@
   </si>
   <si>
     <t>COOPERATIVAS ESCOLARES - Oficinas com cooperados</t>
+  </si>
+  <si>
+    <t>Reunião estratégica com gerentes em MG</t>
+  </si>
+  <si>
+    <t>Apoio no ciclo assemblear em MG</t>
+  </si>
+  <si>
+    <t>Organização Eventos com coordenadores de Núcleo em MG</t>
+  </si>
+  <si>
+    <t>Sensibilização dos embaixadores em MG</t>
+  </si>
+  <si>
+    <t>Organização dos materiais para as agências de MG</t>
+  </si>
+  <si>
+    <t>Visitas institucionais em apoio aos gerentes em MG</t>
+  </si>
+  <si>
+    <t>Oficinas de Educação Financeira em MG</t>
+  </si>
+  <si>
+    <t>Mapear fornecedores de palestras, cursos e fornecedores locais, para execução de cursos estratégicos para os associados em MG</t>
+  </si>
+  <si>
+    <t>Colaborar na gestão e organização dos cursos em MG</t>
+  </si>
+  <si>
+    <t>Mapeamento das ações que são executadas em MG</t>
+  </si>
+  <si>
+    <t>Apoio aos embaixadores de MG</t>
+  </si>
+  <si>
+    <t>Escrever emails sobre propostas de ações em MG</t>
+  </si>
+  <si>
+    <t>Visitas estratégicas nas agências  de MG</t>
+  </si>
+  <si>
+    <t>Apoiar nas Inaugurações das agências MG</t>
+  </si>
+  <si>
+    <t>Visitas as escolas em MG</t>
+  </si>
+  <si>
+    <t>Orientações, suporte as agências, cadastro de eventos, acompanhamento em MG</t>
+  </si>
+  <si>
+    <t>Compras de materiais para os programas MG</t>
   </si>
 </sst>
 </file>
@@ -2899,7 +2950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2961,6 +3012,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3043,8 +3103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}" name="Tabela1" displayName="Tabela1" ref="A1:G675" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:G675" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}" name="Tabela1" displayName="Tabela1" ref="A1:G692" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:G692" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D31221B2-0DE6-4870-999B-FE04BC1AD4EA}" name="Área" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{25B99301-797A-47F7-990A-B80805D70B94}" name="Centro de Custo"/>
@@ -3375,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6B45FF-EBA7-44BE-87A3-76D432B92CF4}">
-  <dimension ref="A1:G675"/>
+  <dimension ref="A1:G692"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B633" sqref="B633"/>
+    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D701" sqref="D701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3415,7 +3475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3432,7 +3492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -3466,7 +3526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -3483,7 +3543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3500,7 +3560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -3517,7 +3577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3551,7 +3611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -3568,7 +3628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -3602,7 +3662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -3676,7 +3736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -3761,7 +3821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -3778,7 +3838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -3801,7 +3861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -3818,7 +3878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -3835,7 +3895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -3881,7 +3941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +3958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +3981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -3938,7 +3998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +4021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -3984,7 +4044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -4007,7 +4067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -4030,7 +4090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -4053,7 +4113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
@@ -4070,7 +4130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
@@ -4093,7 +4153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
@@ -4144,7 +4204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
@@ -4161,7 +4221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
@@ -4178,7 +4238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
@@ -4292,7 +4352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -4315,7 +4375,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
@@ -4338,7 +4398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
@@ -4361,7 +4421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -4401,7 +4461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
@@ -4441,7 +4501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
@@ -4464,7 +4524,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -4504,7 +4564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>7</v>
       </c>
@@ -4547,7 +4607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
@@ -4570,7 +4630,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>7</v>
       </c>
@@ -4593,7 +4653,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4676,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>7</v>
       </c>
@@ -4633,7 +4693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
@@ -4656,7 +4716,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
@@ -4679,7 +4739,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>7</v>
       </c>
@@ -4702,7 +4762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>7</v>
       </c>
@@ -4719,7 +4779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -4733,7 +4793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
@@ -4747,7 +4807,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +4824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>7</v>
       </c>
@@ -4798,7 +4858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>7</v>
       </c>
@@ -4821,7 +4881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
@@ -4844,7 +4904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>7</v>
       </c>
@@ -4858,7 +4918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4941,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>7</v>
       </c>
@@ -4898,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -4961,7 +5021,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>7</v>
       </c>
@@ -4984,7 +5044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>7</v>
       </c>
@@ -5001,7 +5061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>7</v>
       </c>
@@ -5015,7 +5075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5089,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>7</v>
       </c>
@@ -5046,7 +5106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
@@ -5069,7 +5129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>7</v>
       </c>
@@ -5086,7 +5146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>7</v>
       </c>
@@ -5103,7 +5163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>7</v>
       </c>
@@ -5120,7 +5180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>7</v>
       </c>
@@ -5143,7 +5203,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>7</v>
       </c>
@@ -5166,7 +5226,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5263,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5303,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5326,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5349,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>7</v>
       </c>
@@ -5381,7 +5441,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5464,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>7</v>
       </c>
@@ -5427,7 +5487,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>213</v>
       </c>
@@ -5441,7 +5501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>213</v>
       </c>
@@ -5461,7 +5521,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>213</v>
       </c>
@@ -5481,7 +5541,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>213</v>
       </c>
@@ -5501,7 +5561,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>213</v>
       </c>
@@ -5521,7 +5581,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>213</v>
       </c>
@@ -5538,7 +5598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>213</v>
       </c>
@@ -5552,7 +5612,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>213</v>
       </c>
@@ -5572,7 +5632,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>213</v>
       </c>
@@ -5592,7 +5652,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>213</v>
       </c>
@@ -5612,7 +5672,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>213</v>
       </c>
@@ -5626,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>213</v>
       </c>
@@ -5643,7 +5703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>213</v>
       </c>
@@ -5657,7 +5717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>213</v>
       </c>
@@ -5677,7 +5737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>213</v>
       </c>
@@ -5691,7 +5751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>213</v>
       </c>
@@ -5711,7 +5771,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>213</v>
       </c>
@@ -5731,7 +5791,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>213</v>
       </c>
@@ -5745,7 +5805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>213</v>
       </c>
@@ -5765,7 +5825,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>213</v>
       </c>
@@ -5779,7 +5839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>213</v>
       </c>
@@ -5799,7 +5859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>213</v>
       </c>
@@ -5813,7 +5873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>213</v>
       </c>
@@ -5833,7 +5893,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>213</v>
       </c>
@@ -5853,7 +5913,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>213</v>
       </c>
@@ -5867,7 +5927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>213</v>
       </c>
@@ -5887,7 +5947,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>213</v>
       </c>
@@ -5907,7 +5967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>213</v>
       </c>
@@ -5927,7 +5987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>213</v>
       </c>
@@ -5947,7 +6007,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>213</v>
       </c>
@@ -5967,7 +6027,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>213</v>
       </c>
@@ -5987,7 +6047,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>213</v>
       </c>
@@ -6007,7 +6067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>213</v>
       </c>
@@ -6027,7 +6087,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>213</v>
       </c>
@@ -6044,7 +6104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>213</v>
       </c>
@@ -6064,7 +6124,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>213</v>
       </c>
@@ -6081,7 +6141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>213</v>
       </c>
@@ -6101,7 +6161,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>213</v>
       </c>
@@ -6121,7 +6181,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>213</v>
       </c>
@@ -6141,7 +6201,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>213</v>
       </c>
@@ -6161,7 +6221,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>213</v>
       </c>
@@ -6181,7 +6241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>213</v>
       </c>
@@ -6195,7 +6255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>213</v>
       </c>
@@ -6209,7 +6269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>213</v>
       </c>
@@ -6229,7 +6289,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>213</v>
       </c>
@@ -6249,7 +6309,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>213</v>
       </c>
@@ -6269,7 +6329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>213</v>
       </c>
@@ -6283,7 +6343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>213</v>
       </c>
@@ -6297,7 +6357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>213</v>
       </c>
@@ -6317,7 +6377,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>213</v>
       </c>
@@ -6337,7 +6397,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>213</v>
       </c>
@@ -6357,7 +6417,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>213</v>
       </c>
@@ -6377,7 +6437,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>213</v>
       </c>
@@ -6391,7 +6451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>213</v>
       </c>
@@ -6405,7 +6465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>213</v>
       </c>
@@ -6422,7 +6482,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>213</v>
       </c>
@@ -6439,7 +6499,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>213</v>
       </c>
@@ -6459,7 +6519,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>213</v>
       </c>
@@ -6479,7 +6539,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>213</v>
       </c>
@@ -6499,7 +6559,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>213</v>
       </c>
@@ -6519,7 +6579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>213</v>
       </c>
@@ -6533,7 +6593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>213</v>
       </c>
@@ -6553,7 +6613,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>213</v>
       </c>
@@ -6567,7 +6627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>213</v>
       </c>
@@ -6581,7 +6641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>213</v>
       </c>
@@ -6595,7 +6655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>213</v>
       </c>
@@ -6615,7 +6675,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>213</v>
       </c>
@@ -6632,7 +6692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>213</v>
       </c>
@@ -6652,7 +6712,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>213</v>
       </c>
@@ -6672,7 +6732,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>213</v>
       </c>
@@ -6692,7 +6752,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>213</v>
       </c>
@@ -6712,7 +6772,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>213</v>
       </c>
@@ -6732,7 +6792,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>213</v>
       </c>
@@ -6746,7 +6806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>213</v>
       </c>
@@ -6766,7 +6826,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>213</v>
       </c>
@@ -6786,7 +6846,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>213</v>
       </c>
@@ -6806,7 +6866,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>328</v>
       </c>
@@ -6829,7 +6889,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>328</v>
       </c>
@@ -6852,7 +6912,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>328</v>
       </c>
@@ -6875,7 +6935,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>328</v>
       </c>
@@ -6895,7 +6955,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>328</v>
       </c>
@@ -6915,7 +6975,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>328</v>
       </c>
@@ -6935,7 +6995,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>344</v>
       </c>
@@ -6958,7 +7018,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>344</v>
       </c>
@@ -6981,7 +7041,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>344</v>
       </c>
@@ -7004,7 +7064,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>344</v>
       </c>
@@ -7027,7 +7087,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>344</v>
       </c>
@@ -7050,7 +7110,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>344</v>
       </c>
@@ -7073,7 +7133,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>344</v>
       </c>
@@ -7096,7 +7156,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>344</v>
       </c>
@@ -7119,7 +7179,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>344</v>
       </c>
@@ -7142,7 +7202,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>344</v>
       </c>
@@ -7165,7 +7225,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>344</v>
       </c>
@@ -7188,7 +7248,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>344</v>
       </c>
@@ -7211,7 +7271,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>344</v>
       </c>
@@ -7228,7 +7288,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>344</v>
       </c>
@@ -7245,7 +7305,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>344</v>
       </c>
@@ -7262,7 +7322,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>344</v>
       </c>
@@ -7282,7 +7342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>344</v>
       </c>
@@ -7302,7 +7362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>344</v>
       </c>
@@ -7319,7 +7379,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>344</v>
       </c>
@@ -7333,7 +7393,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>344</v>
       </c>
@@ -7353,7 +7413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>344</v>
       </c>
@@ -7370,7 +7430,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>344</v>
       </c>
@@ -7390,7 +7450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
         <v>344</v>
       </c>
@@ -7407,7 +7467,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>344</v>
       </c>
@@ -7424,7 +7484,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>344</v>
       </c>
@@ -7438,7 +7498,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>344</v>
       </c>
@@ -7455,7 +7515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>344</v>
       </c>
@@ -7469,7 +7529,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>344</v>
       </c>
@@ -7483,7 +7543,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>344</v>
       </c>
@@ -7500,7 +7560,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>344</v>
       </c>
@@ -7517,7 +7577,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
         <v>344</v>
       </c>
@@ -7537,7 +7597,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>344</v>
       </c>
@@ -7554,7 +7614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
         <v>344</v>
       </c>
@@ -7568,7 +7628,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
         <v>344</v>
       </c>
@@ -7585,7 +7645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
         <v>344</v>
       </c>
@@ -7602,7 +7662,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>344</v>
       </c>
@@ -7622,7 +7682,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
         <v>344</v>
       </c>
@@ -7639,7 +7699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>344</v>
       </c>
@@ -7653,7 +7713,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
         <v>344</v>
       </c>
@@ -7670,7 +7730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
         <v>344</v>
       </c>
@@ -7687,7 +7747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
         <v>344</v>
       </c>
@@ -7704,7 +7764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
         <v>344</v>
       </c>
@@ -7718,7 +7778,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
         <v>344</v>
       </c>
@@ -7732,7 +7792,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>344</v>
       </c>
@@ -7746,7 +7806,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>344</v>
       </c>
@@ -7760,7 +7820,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>344</v>
       </c>
@@ -7774,7 +7834,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
         <v>344</v>
       </c>
@@ -7788,7 +7848,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>344</v>
       </c>
@@ -7802,7 +7862,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
         <v>344</v>
       </c>
@@ -7819,7 +7879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>344</v>
       </c>
@@ -7836,7 +7896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
         <v>344</v>
       </c>
@@ -7853,7 +7913,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>344</v>
       </c>
@@ -7867,7 +7927,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
         <v>344</v>
       </c>
@@ -7881,7 +7941,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>344</v>
       </c>
@@ -7895,7 +7955,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
         <v>344</v>
       </c>
@@ -7912,7 +7972,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
         <v>344</v>
       </c>
@@ -7929,7 +7989,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
         <v>344</v>
       </c>
@@ -7946,7 +8006,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>344</v>
       </c>
@@ -7966,7 +8026,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
         <v>344</v>
       </c>
@@ -7983,7 +8043,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>344</v>
       </c>
@@ -8000,7 +8060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
         <v>344</v>
       </c>
@@ -8020,7 +8080,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>344</v>
       </c>
@@ -8037,7 +8097,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>344</v>
       </c>
@@ -8054,7 +8114,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>344</v>
       </c>
@@ -8071,7 +8131,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
         <v>344</v>
       </c>
@@ -8088,7 +8148,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>344</v>
       </c>
@@ -8105,7 +8165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
         <v>344</v>
       </c>
@@ -8122,7 +8182,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>344</v>
       </c>
@@ -8139,7 +8199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
         <v>344</v>
       </c>
@@ -8156,7 +8216,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>344</v>
       </c>
@@ -8173,7 +8233,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>344</v>
       </c>
@@ -8190,7 +8250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>344</v>
       </c>
@@ -8207,7 +8267,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>344</v>
       </c>
@@ -8224,7 +8284,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>344</v>
       </c>
@@ -8241,7 +8301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
         <v>344</v>
       </c>
@@ -8258,7 +8318,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>344</v>
       </c>
@@ -8275,7 +8335,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
         <v>344</v>
       </c>
@@ -8292,7 +8352,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>344</v>
       </c>
@@ -8309,7 +8369,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>344</v>
       </c>
@@ -8326,7 +8386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>344</v>
       </c>
@@ -8343,7 +8403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>344</v>
       </c>
@@ -8357,7 +8417,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>344</v>
       </c>
@@ -8377,7 +8437,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
         <v>344</v>
       </c>
@@ -8394,7 +8454,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>344</v>
       </c>
@@ -8408,7 +8468,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="7" t="s">
         <v>344</v>
       </c>
@@ -8428,7 +8488,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>344</v>
       </c>
@@ -8439,7 +8499,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
         <v>344</v>
       </c>
@@ -8450,7 +8510,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>344</v>
       </c>
@@ -8461,7 +8521,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
         <v>344</v>
       </c>
@@ -8472,7 +8532,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
         <v>344</v>
       </c>
@@ -8483,7 +8543,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
         <v>344</v>
       </c>
@@ -8494,7 +8554,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>344</v>
       </c>
@@ -8505,7 +8565,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
         <v>344</v>
       </c>
@@ -8516,7 +8576,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>344</v>
       </c>
@@ -8527,7 +8587,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
         <v>344</v>
       </c>
@@ -8538,7 +8598,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>344</v>
       </c>
@@ -8549,7 +8609,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>344</v>
       </c>
@@ -8560,7 +8620,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>344</v>
       </c>
@@ -8571,7 +8631,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
         <v>344</v>
       </c>
@@ -8582,7 +8642,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
         <v>344</v>
       </c>
@@ -8593,7 +8653,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
         <v>344</v>
       </c>
@@ -8604,7 +8664,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>344</v>
       </c>
@@ -8615,7 +8675,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
         <v>344</v>
       </c>
@@ -8626,7 +8686,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
         <v>344</v>
       </c>
@@ -8637,7 +8697,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
         <v>344</v>
       </c>
@@ -8648,7 +8708,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
         <v>344</v>
       </c>
@@ -8659,7 +8719,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="7" t="s">
         <v>344</v>
       </c>
@@ -8670,7 +8730,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>344</v>
       </c>
@@ -8681,7 +8741,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
         <v>344</v>
       </c>
@@ -8692,7 +8752,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>344</v>
       </c>
@@ -8703,7 +8763,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
         <v>344</v>
       </c>
@@ -8714,7 +8774,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
         <v>344</v>
       </c>
@@ -8725,7 +8785,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
         <v>344</v>
       </c>
@@ -8736,7 +8796,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>344</v>
       </c>
@@ -8747,7 +8807,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
         <v>344</v>
       </c>
@@ -8758,7 +8818,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>344</v>
       </c>
@@ -8769,7 +8829,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
         <v>344</v>
       </c>
@@ -8780,7 +8840,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
         <v>344</v>
       </c>
@@ -8791,7 +8851,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
         <v>344</v>
       </c>
@@ -8802,7 +8862,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>344</v>
       </c>
@@ -8813,7 +8873,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
         <v>344</v>
       </c>
@@ -8824,7 +8884,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>344</v>
       </c>
@@ -8835,7 +8895,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
         <v>344</v>
       </c>
@@ -8846,7 +8906,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>344</v>
       </c>
@@ -8857,7 +8917,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
         <v>344</v>
       </c>
@@ -8868,7 +8928,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>344</v>
       </c>
@@ -8879,7 +8939,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="7" t="s">
         <v>344</v>
       </c>
@@ -8890,7 +8950,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>344</v>
       </c>
@@ -8901,7 +8961,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
         <v>344</v>
       </c>
@@ -8912,7 +8972,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>344</v>
       </c>
@@ -8923,7 +8983,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
         <v>344</v>
       </c>
@@ -8934,7 +8994,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>344</v>
       </c>
@@ -8945,7 +9005,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
         <v>344</v>
       </c>
@@ -8956,7 +9016,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>344</v>
       </c>
@@ -8967,7 +9027,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
         <v>344</v>
       </c>
@@ -8978,7 +9038,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>344</v>
       </c>
@@ -8989,7 +9049,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
         <v>344</v>
       </c>
@@ -9000,7 +9060,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>344</v>
       </c>
@@ -9011,7 +9071,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
         <v>344</v>
       </c>
@@ -9031,7 +9091,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>344</v>
       </c>
@@ -9042,7 +9102,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
         <v>344</v>
       </c>
@@ -9053,7 +9113,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
         <v>344</v>
       </c>
@@ -9064,7 +9124,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
         <v>344</v>
       </c>
@@ -9075,7 +9135,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
         <v>344</v>
       </c>
@@ -9086,7 +9146,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
         <v>344</v>
       </c>
@@ -9097,7 +9157,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
         <v>344</v>
       </c>
@@ -9108,7 +9168,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
         <v>344</v>
       </c>
@@ -9119,7 +9179,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
         <v>344</v>
       </c>
@@ -9130,7 +9190,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
         <v>344</v>
       </c>
@@ -9141,7 +9201,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
         <v>344</v>
       </c>
@@ -9152,7 +9212,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
         <v>344</v>
       </c>
@@ -9163,7 +9223,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
         <v>344</v>
       </c>
@@ -9186,7 +9246,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
         <v>344</v>
       </c>
@@ -9209,7 +9269,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
         <v>344</v>
       </c>
@@ -9232,7 +9292,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="7" t="s">
         <v>344</v>
       </c>
@@ -9255,7 +9315,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
         <v>344</v>
       </c>
@@ -9278,7 +9338,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
         <v>344</v>
       </c>
@@ -9301,7 +9361,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
         <v>344</v>
       </c>
@@ -9324,7 +9384,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
         <v>344</v>
       </c>
@@ -9344,7 +9404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
         <v>344</v>
       </c>
@@ -9364,7 +9424,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>344</v>
       </c>
@@ -9387,7 +9447,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>344</v>
       </c>
@@ -9410,7 +9470,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
         <v>344</v>
       </c>
@@ -9430,7 +9490,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
         <v>344</v>
       </c>
@@ -9453,7 +9513,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
         <v>344</v>
       </c>
@@ -9476,7 +9536,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
         <v>344</v>
       </c>
@@ -9499,7 +9559,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
         <v>344</v>
       </c>
@@ -9519,7 +9579,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
         <v>344</v>
       </c>
@@ -9533,7 +9593,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
         <v>344</v>
       </c>
@@ -9553,7 +9613,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
         <v>344</v>
       </c>
@@ -9573,7 +9633,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
         <v>344</v>
       </c>
@@ -9593,7 +9653,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
         <v>344</v>
       </c>
@@ -9613,7 +9673,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
         <v>344</v>
       </c>
@@ -9633,7 +9693,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
         <v>344</v>
       </c>
@@ -9653,7 +9713,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
         <v>344</v>
       </c>
@@ -9676,7 +9736,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
         <v>344</v>
       </c>
@@ -9696,7 +9756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
         <v>344</v>
       </c>
@@ -9716,7 +9776,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
         <v>344</v>
       </c>
@@ -9736,7 +9796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
         <v>344</v>
       </c>
@@ -9756,7 +9816,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
         <v>344</v>
       </c>
@@ -9779,7 +9839,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
         <v>344</v>
       </c>
@@ -9799,7 +9859,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
         <v>344</v>
       </c>
@@ -9819,7 +9879,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
         <v>344</v>
       </c>
@@ -9839,7 +9899,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>344</v>
       </c>
@@ -9859,7 +9919,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
         <v>344</v>
       </c>
@@ -9879,7 +9939,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
         <v>344</v>
       </c>
@@ -9902,7 +9962,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
         <v>344</v>
       </c>
@@ -9922,7 +9982,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
         <v>344</v>
       </c>
@@ -9942,7 +10002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
         <v>344</v>
       </c>
@@ -9962,7 +10022,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
         <v>344</v>
       </c>
@@ -9982,7 +10042,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
         <v>344</v>
       </c>
@@ -10005,7 +10065,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
         <v>344</v>
       </c>
@@ -10028,7 +10088,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
         <v>344</v>
       </c>
@@ -10048,7 +10108,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>344</v>
       </c>
@@ -10068,7 +10128,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
         <v>344</v>
       </c>
@@ -10088,7 +10148,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
         <v>344</v>
       </c>
@@ -10108,7 +10168,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="7" t="s">
         <v>344</v>
       </c>
@@ -10128,7 +10188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>344</v>
       </c>
@@ -10151,7 +10211,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>344</v>
       </c>
@@ -10174,7 +10234,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="7" t="s">
         <v>344</v>
       </c>
@@ -10197,7 +10257,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="7" t="s">
         <v>344</v>
       </c>
@@ -10220,7 +10280,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="7" t="s">
         <v>344</v>
       </c>
@@ -10234,7 +10294,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
         <v>344</v>
       </c>
@@ -10248,7 +10308,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>344</v>
       </c>
@@ -10262,7 +10322,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="7" t="s">
         <v>344</v>
       </c>
@@ -10276,7 +10336,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="7" t="s">
         <v>344</v>
       </c>
@@ -10290,7 +10350,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="7" t="s">
         <v>344</v>
       </c>
@@ -10304,7 +10364,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="7" t="s">
         <v>344</v>
       </c>
@@ -10318,7 +10378,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="7" t="s">
         <v>344</v>
       </c>
@@ -10332,7 +10392,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="7" t="s">
         <v>344</v>
       </c>
@@ -10346,7 +10406,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="7" t="s">
         <v>344</v>
       </c>
@@ -10360,7 +10420,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="7" t="s">
         <v>344</v>
       </c>
@@ -10374,7 +10434,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="7" t="s">
         <v>344</v>
       </c>
@@ -10388,7 +10448,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="7" t="s">
         <v>344</v>
       </c>
@@ -10402,7 +10462,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="7" t="s">
         <v>344</v>
       </c>
@@ -10416,7 +10476,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="7" t="s">
         <v>344</v>
       </c>
@@ -10430,7 +10490,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="7" t="s">
         <v>344</v>
       </c>
@@ -10444,7 +10504,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="7" t="s">
         <v>344</v>
       </c>
@@ -10458,7 +10518,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="7" t="s">
         <v>344</v>
       </c>
@@ -10472,7 +10532,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="7" t="s">
         <v>344</v>
       </c>
@@ -10486,7 +10546,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="7" t="s">
         <v>344</v>
       </c>
@@ -10500,7 +10560,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="7" t="s">
         <v>344</v>
       </c>
@@ -10514,7 +10574,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="7" t="s">
         <v>344</v>
       </c>
@@ -10528,7 +10588,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>344</v>
       </c>
@@ -10542,7 +10602,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="7" t="s">
         <v>344</v>
       </c>
@@ -10556,7 +10616,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="7" t="s">
         <v>344</v>
       </c>
@@ -10570,7 +10630,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="7" t="s">
         <v>344</v>
       </c>
@@ -10584,7 +10644,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
         <v>344</v>
       </c>
@@ -10598,7 +10658,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="7" t="s">
         <v>344</v>
       </c>
@@ -10612,7 +10672,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="7" t="s">
         <v>344</v>
       </c>
@@ -10626,7 +10686,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="7" t="s">
         <v>344</v>
       </c>
@@ -10640,7 +10700,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="7" t="s">
         <v>344</v>
       </c>
@@ -10654,7 +10714,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="7" t="s">
         <v>344</v>
       </c>
@@ -10668,7 +10728,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="7" t="s">
         <v>344</v>
       </c>
@@ -10682,7 +10742,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="7" t="s">
         <v>344</v>
       </c>
@@ -10696,7 +10756,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="7" t="s">
         <v>344</v>
       </c>
@@ -10710,7 +10770,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="7" t="s">
         <v>344</v>
       </c>
@@ -10724,7 +10784,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="7" t="s">
         <v>344</v>
       </c>
@@ -10738,7 +10798,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="7" t="s">
         <v>344</v>
       </c>
@@ -10752,7 +10812,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="7" t="s">
         <v>344</v>
       </c>
@@ -10766,7 +10826,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="7" t="s">
         <v>344</v>
       </c>
@@ -10780,7 +10840,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="7" t="s">
         <v>344</v>
       </c>
@@ -10794,7 +10854,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="7" t="s">
         <v>344</v>
       </c>
@@ -10808,7 +10868,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="7" t="s">
         <v>344</v>
       </c>
@@ -10822,7 +10882,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="7" t="s">
         <v>344</v>
       </c>
@@ -10836,7 +10896,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="7" t="s">
         <v>344</v>
       </c>
@@ -10850,7 +10910,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="7" t="s">
         <v>344</v>
       </c>
@@ -10864,7 +10924,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="7" t="s">
         <v>344</v>
       </c>
@@ -10878,7 +10938,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="7" t="s">
         <v>344</v>
       </c>
@@ -10892,7 +10952,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="7" t="s">
         <v>344</v>
       </c>
@@ -10906,7 +10966,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="7" t="s">
         <v>344</v>
       </c>
@@ -10920,7 +10980,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="7" t="s">
         <v>344</v>
       </c>
@@ -10934,7 +10994,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="7" t="s">
         <v>344</v>
       </c>
@@ -10948,7 +11008,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="7" t="s">
         <v>344</v>
       </c>
@@ -10962,7 +11022,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="7" t="s">
         <v>344</v>
       </c>
@@ -10976,7 +11036,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="7" t="s">
         <v>344</v>
       </c>
@@ -10990,7 +11050,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="7" t="s">
         <v>344</v>
       </c>
@@ -11004,7 +11064,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="7" t="s">
         <v>344</v>
       </c>
@@ -11018,7 +11078,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="7" t="s">
         <v>344</v>
       </c>
@@ -11032,7 +11092,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="7" t="s">
         <v>344</v>
       </c>
@@ -11046,7 +11106,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="7" t="s">
         <v>344</v>
       </c>
@@ -11060,7 +11120,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="7" t="s">
         <v>344</v>
       </c>
@@ -11074,7 +11134,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="7" t="s">
         <v>344</v>
       </c>
@@ -11088,7 +11148,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="7" t="s">
         <v>344</v>
       </c>
@@ -11102,7 +11162,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="7" t="s">
         <v>344</v>
       </c>
@@ -11116,7 +11176,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="7" t="s">
         <v>344</v>
       </c>
@@ -11130,7 +11190,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="7" t="s">
         <v>344</v>
       </c>
@@ -11144,7 +11204,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="7" t="s">
         <v>344</v>
       </c>
@@ -11158,7 +11218,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="7" t="s">
         <v>344</v>
       </c>
@@ -11172,7 +11232,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="8" t="s">
         <v>666</v>
       </c>
@@ -11189,7 +11249,7 @@
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="8" t="s">
         <v>666</v>
       </c>
@@ -11206,7 +11266,7 @@
       <c r="F457" s="16"/>
       <c r="G457" s="16"/>
     </row>
-    <row r="458" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="8" t="s">
         <v>666</v>
       </c>
@@ -11229,7 +11289,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="8" t="s">
         <v>666</v>
       </c>
@@ -11248,7 +11308,7 @@
       <c r="F459" s="16"/>
       <c r="G459" s="16"/>
     </row>
-    <row r="460" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="8" t="s">
         <v>666</v>
       </c>
@@ -11265,7 +11325,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="8" t="s">
         <v>666</v>
       </c>
@@ -11282,7 +11342,7 @@
       <c r="F461" s="16"/>
       <c r="G461" s="16"/>
     </row>
-    <row r="462" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="8" t="s">
         <v>666</v>
       </c>
@@ -11299,7 +11359,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="8" t="s">
         <v>666</v>
       </c>
@@ -11316,7 +11376,7 @@
       <c r="F463" s="16"/>
       <c r="G463" s="16"/>
     </row>
-    <row r="464" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="8" t="s">
         <v>666</v>
       </c>
@@ -11333,7 +11393,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="8" t="s">
         <v>666</v>
       </c>
@@ -11350,7 +11410,7 @@
       <c r="F465" s="16"/>
       <c r="G465" s="16"/>
     </row>
-    <row r="466" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="8" t="s">
         <v>666</v>
       </c>
@@ -11367,7 +11427,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="8" t="s">
         <v>666</v>
       </c>
@@ -11384,7 +11444,7 @@
       <c r="F467" s="16"/>
       <c r="G467" s="16"/>
     </row>
-    <row r="468" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="8" t="s">
         <v>666</v>
       </c>
@@ -11401,7 +11461,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="8" t="s">
         <v>666</v>
       </c>
@@ -11418,7 +11478,7 @@
       <c r="F469" s="16"/>
       <c r="G469" s="16"/>
     </row>
-    <row r="470" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="8" t="s">
         <v>666</v>
       </c>
@@ -11435,7 +11495,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="8" t="s">
         <v>666</v>
       </c>
@@ -11452,7 +11512,7 @@
       <c r="F471" s="16"/>
       <c r="G471" s="16"/>
     </row>
-    <row r="472" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="8" t="s">
         <v>666</v>
       </c>
@@ -11469,7 +11529,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="8" t="s">
         <v>666</v>
       </c>
@@ -11486,7 +11546,7 @@
       <c r="F473" s="16"/>
       <c r="G473" s="16"/>
     </row>
-    <row r="474" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="8" t="s">
         <v>666</v>
       </c>
@@ -11503,7 +11563,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="8" t="s">
         <v>666</v>
       </c>
@@ -11520,7 +11580,7 @@
       <c r="F475" s="16"/>
       <c r="G475" s="16"/>
     </row>
-    <row r="476" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="8" t="s">
         <v>666</v>
       </c>
@@ -11537,7 +11597,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="8" t="s">
         <v>666</v>
       </c>
@@ -11554,7 +11614,7 @@
       <c r="F477" s="16"/>
       <c r="G477" s="16"/>
     </row>
-    <row r="478" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="8" t="s">
         <v>666</v>
       </c>
@@ -11571,7 +11631,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="8" t="s">
         <v>666</v>
       </c>
@@ -11588,7 +11648,7 @@
       <c r="F479" s="16"/>
       <c r="G479" s="16"/>
     </row>
-    <row r="480" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="8" t="s">
         <v>666</v>
       </c>
@@ -11605,7 +11665,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="8" t="s">
         <v>666</v>
       </c>
@@ -11622,7 +11682,7 @@
       <c r="F481" s="16"/>
       <c r="G481" s="16"/>
     </row>
-    <row r="482" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="8" t="s">
         <v>666</v>
       </c>
@@ -11639,7 +11699,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="8" t="s">
         <v>666</v>
       </c>
@@ -11656,7 +11716,7 @@
       <c r="F483" s="16"/>
       <c r="G483" s="16"/>
     </row>
-    <row r="484" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="8" t="s">
         <v>666</v>
       </c>
@@ -11673,7 +11733,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="8" t="s">
         <v>699</v>
       </c>
@@ -11690,7 +11750,7 @@
       <c r="F485" s="16"/>
       <c r="G485" s="16"/>
     </row>
-    <row r="486" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="8" t="s">
         <v>699</v>
       </c>
@@ -11707,7 +11767,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="8" t="s">
         <v>699</v>
       </c>
@@ -11724,7 +11784,7 @@
       <c r="F487" s="16"/>
       <c r="G487" s="16"/>
     </row>
-    <row r="488" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="8" t="s">
         <v>699</v>
       </c>
@@ -11741,7 +11801,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="8" t="s">
         <v>699</v>
       </c>
@@ -11758,7 +11818,7 @@
       <c r="F489" s="16"/>
       <c r="G489" s="16"/>
     </row>
-    <row r="490" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="8" t="s">
         <v>699</v>
       </c>
@@ -11777,7 +11837,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="8" t="s">
         <v>699</v>
       </c>
@@ -11794,7 +11854,7 @@
       <c r="F491" s="16"/>
       <c r="G491" s="16"/>
     </row>
-    <row r="492" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="8" t="s">
         <v>699</v>
       </c>
@@ -11811,7 +11871,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="8" t="s">
         <v>699</v>
       </c>
@@ -11828,7 +11888,7 @@
       <c r="F493" s="16"/>
       <c r="G493" s="16"/>
     </row>
-    <row r="494" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="8" t="s">
         <v>699</v>
       </c>
@@ -11845,7 +11905,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="8" t="s">
         <v>699</v>
       </c>
@@ -11862,7 +11922,7 @@
       <c r="F495" s="16"/>
       <c r="G495" s="16"/>
     </row>
-    <row r="496" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="8" t="s">
         <v>666</v>
       </c>
@@ -11879,7 +11939,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="8" t="s">
         <v>699</v>
       </c>
@@ -11896,7 +11956,7 @@
       <c r="F497" s="16"/>
       <c r="G497" s="16"/>
     </row>
-    <row r="498" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="8" t="s">
         <v>699</v>
       </c>
@@ -11913,7 +11973,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="8" t="s">
         <v>699</v>
       </c>
@@ -11930,7 +11990,7 @@
       <c r="F499" s="16"/>
       <c r="G499" s="16"/>
     </row>
-    <row r="500" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="8" t="s">
         <v>699</v>
       </c>
@@ -11947,7 +12007,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="8" t="s">
         <v>699</v>
       </c>
@@ -11964,7 +12024,7 @@
       <c r="F501" s="16"/>
       <c r="G501" s="16"/>
     </row>
-    <row r="502" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="8" t="s">
         <v>699</v>
       </c>
@@ -11981,7 +12041,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="8" t="s">
         <v>666</v>
       </c>
@@ -11998,7 +12058,7 @@
       <c r="F503" s="16"/>
       <c r="G503" s="16"/>
     </row>
-    <row r="504" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="8" t="s">
         <v>699</v>
       </c>
@@ -12015,7 +12075,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="8" t="s">
         <v>666</v>
       </c>
@@ -12032,7 +12092,7 @@
       <c r="F505" s="16"/>
       <c r="G505" s="16"/>
     </row>
-    <row r="506" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="8" t="s">
         <v>666</v>
       </c>
@@ -12049,7 +12109,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="8" t="s">
         <v>666</v>
       </c>
@@ -12066,7 +12126,7 @@
       <c r="F507" s="16"/>
       <c r="G507" s="16"/>
     </row>
-    <row r="508" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="8" t="s">
         <v>666</v>
       </c>
@@ -12083,7 +12143,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="8" t="s">
         <v>666</v>
       </c>
@@ -12100,7 +12160,7 @@
       <c r="F509" s="16"/>
       <c r="G509" s="16"/>
     </row>
-    <row r="510" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="8" t="s">
         <v>666</v>
       </c>
@@ -12117,7 +12177,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="8" t="s">
         <v>666</v>
       </c>
@@ -12134,7 +12194,7 @@
       <c r="F511" s="16"/>
       <c r="G511" s="16"/>
     </row>
-    <row r="512" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="8" t="s">
         <v>666</v>
       </c>
@@ -12151,7 +12211,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="8" t="s">
         <v>666</v>
       </c>
@@ -12168,7 +12228,7 @@
       <c r="F513" s="16"/>
       <c r="G513" s="16"/>
     </row>
-    <row r="514" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="8" t="s">
         <v>666</v>
       </c>
@@ -12185,7 +12245,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="8" t="s">
         <v>666</v>
       </c>
@@ -12202,7 +12262,7 @@
       <c r="F515" s="16"/>
       <c r="G515" s="16"/>
     </row>
-    <row r="516" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="8" t="s">
         <v>666</v>
       </c>
@@ -12219,7 +12279,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="8" t="s">
         <v>666</v>
       </c>
@@ -12236,7 +12296,7 @@
       <c r="F517" s="16"/>
       <c r="G517" s="16"/>
     </row>
-    <row r="518" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="8" t="s">
         <v>666</v>
       </c>
@@ -12253,7 +12313,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="8" t="s">
         <v>666</v>
       </c>
@@ -12270,7 +12330,7 @@
       <c r="F519" s="16"/>
       <c r="G519" s="16"/>
     </row>
-    <row r="520" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="8" t="s">
         <v>666</v>
       </c>
@@ -12287,7 +12347,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="8" t="s">
         <v>666</v>
       </c>
@@ -12304,7 +12364,7 @@
       <c r="F521" s="16"/>
       <c r="G521" s="16"/>
     </row>
-    <row r="522" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="8" t="s">
         <v>699</v>
       </c>
@@ -12321,7 +12381,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="8" t="s">
         <v>699</v>
       </c>
@@ -12338,7 +12398,7 @@
       <c r="F523" s="16"/>
       <c r="G523" s="16"/>
     </row>
-    <row r="524" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="8" t="s">
         <v>699</v>
       </c>
@@ -12355,7 +12415,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="8" t="s">
         <v>699</v>
       </c>
@@ -12372,7 +12432,7 @@
       <c r="F525" s="16"/>
       <c r="G525" s="16"/>
     </row>
-    <row r="526" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="8" t="s">
         <v>699</v>
       </c>
@@ -12389,7 +12449,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="8" t="s">
         <v>699</v>
       </c>
@@ -12406,7 +12466,7 @@
       <c r="F527" s="16"/>
       <c r="G527" s="16"/>
     </row>
-    <row r="528" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="8" t="s">
         <v>699</v>
       </c>
@@ -12423,7 +12483,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="8" t="s">
         <v>699</v>
       </c>
@@ -12440,7 +12500,7 @@
       <c r="F529" s="16"/>
       <c r="G529" s="16"/>
     </row>
-    <row r="530" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="8" t="s">
         <v>699</v>
       </c>
@@ -12457,7 +12517,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="8" t="s">
         <v>699</v>
       </c>
@@ -12474,7 +12534,7 @@
       <c r="F531" s="16"/>
       <c r="G531" s="16"/>
     </row>
-    <row r="532" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="8" t="s">
         <v>699</v>
       </c>
@@ -12491,7 +12551,7 @@
       <c r="F532" s="16"/>
       <c r="G532" s="16"/>
     </row>
-    <row r="533" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="8" t="s">
         <v>699</v>
       </c>
@@ -12508,7 +12568,7 @@
       <c r="F533" s="16"/>
       <c r="G533" s="16"/>
     </row>
-    <row r="534" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="8" t="s">
         <v>699</v>
       </c>
@@ -12527,7 +12587,7 @@
       <c r="F534" s="16"/>
       <c r="G534" s="16"/>
     </row>
-    <row r="535" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="8" t="s">
         <v>699</v>
       </c>
@@ -12546,7 +12606,7 @@
       <c r="F535" s="16"/>
       <c r="G535" s="16"/>
     </row>
-    <row r="536" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="8" t="s">
         <v>699</v>
       </c>
@@ -12565,7 +12625,7 @@
       <c r="F536" s="16"/>
       <c r="G536" s="16"/>
     </row>
-    <row r="537" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="8" t="s">
         <v>699</v>
       </c>
@@ -12584,7 +12644,7 @@
       <c r="F537" s="16"/>
       <c r="G537" s="16"/>
     </row>
-    <row r="538" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="8" t="s">
         <v>699</v>
       </c>
@@ -12603,7 +12663,7 @@
       <c r="F538" s="16"/>
       <c r="G538" s="16"/>
     </row>
-    <row r="539" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="8" t="s">
         <v>699</v>
       </c>
@@ -12622,7 +12682,7 @@
       <c r="F539" s="16"/>
       <c r="G539" s="16"/>
     </row>
-    <row r="540" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="8" t="s">
         <v>699</v>
       </c>
@@ -12641,7 +12701,7 @@
       <c r="F540" s="16"/>
       <c r="G540" s="16"/>
     </row>
-    <row r="541" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="8" t="s">
         <v>699</v>
       </c>
@@ -12660,7 +12720,7 @@
       <c r="F541" s="16"/>
       <c r="G541" s="16"/>
     </row>
-    <row r="542" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="8" t="s">
         <v>699</v>
       </c>
@@ -12679,7 +12739,7 @@
       <c r="F542" s="16"/>
       <c r="G542" s="16"/>
     </row>
-    <row r="543" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="8" t="s">
         <v>699</v>
       </c>
@@ -12698,7 +12758,7 @@
       <c r="F543" s="16"/>
       <c r="G543" s="16"/>
     </row>
-    <row r="544" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="8" t="s">
         <v>699</v>
       </c>
@@ -12717,7 +12777,7 @@
       <c r="F544" s="16"/>
       <c r="G544" s="16"/>
     </row>
-    <row r="545" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="8" t="s">
         <v>699</v>
       </c>
@@ -12736,7 +12796,7 @@
       <c r="F545" s="16"/>
       <c r="G545" s="16"/>
     </row>
-    <row r="546" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="8" t="s">
         <v>699</v>
       </c>
@@ -12755,7 +12815,7 @@
       <c r="F546" s="16"/>
       <c r="G546" s="16"/>
     </row>
-    <row r="547" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="8" t="s">
         <v>699</v>
       </c>
@@ -12774,7 +12834,7 @@
       <c r="F547" s="16"/>
       <c r="G547" s="16"/>
     </row>
-    <row r="548" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="8" t="s">
         <v>699</v>
       </c>
@@ -12793,7 +12853,7 @@
       <c r="F548" s="16"/>
       <c r="G548" s="16"/>
     </row>
-    <row r="549" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="8" t="s">
         <v>699</v>
       </c>
@@ -12812,7 +12872,7 @@
       <c r="F549" s="16"/>
       <c r="G549" s="16"/>
     </row>
-    <row r="550" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="8" t="s">
         <v>699</v>
       </c>
@@ -12831,7 +12891,7 @@
       <c r="F550" s="16"/>
       <c r="G550" s="16"/>
     </row>
-    <row r="551" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="8" t="s">
         <v>699</v>
       </c>
@@ -12850,7 +12910,7 @@
       <c r="F551" s="16"/>
       <c r="G551" s="16"/>
     </row>
-    <row r="552" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="8" t="s">
         <v>699</v>
       </c>
@@ -12869,7 +12929,7 @@
       <c r="F552" s="16"/>
       <c r="G552" s="16"/>
     </row>
-    <row r="553" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="8" t="s">
         <v>699</v>
       </c>
@@ -12888,7 +12948,7 @@
       <c r="F553" s="16"/>
       <c r="G553" s="16"/>
     </row>
-    <row r="554" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="8" t="s">
         <v>699</v>
       </c>
@@ -12907,7 +12967,7 @@
       <c r="F554" s="16"/>
       <c r="G554" s="16"/>
     </row>
-    <row r="555" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="8" t="s">
         <v>699</v>
       </c>
@@ -12926,7 +12986,7 @@
       <c r="F555" s="16"/>
       <c r="G555" s="16"/>
     </row>
-    <row r="556" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="8" t="s">
         <v>699</v>
       </c>
@@ -12945,7 +13005,7 @@
       <c r="F556" s="16"/>
       <c r="G556" s="16"/>
     </row>
-    <row r="557" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="8" t="s">
         <v>699</v>
       </c>
@@ -12964,7 +13024,7 @@
       <c r="F557" s="16"/>
       <c r="G557" s="16"/>
     </row>
-    <row r="558" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="8" t="s">
         <v>699</v>
       </c>
@@ -12983,7 +13043,7 @@
       <c r="F558" s="16"/>
       <c r="G558" s="16"/>
     </row>
-    <row r="559" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="8" t="s">
         <v>699</v>
       </c>
@@ -13002,7 +13062,7 @@
       <c r="F559" s="16"/>
       <c r="G559" s="16"/>
     </row>
-    <row r="560" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="8" t="s">
         <v>699</v>
       </c>
@@ -13021,7 +13081,7 @@
       <c r="F560" s="16"/>
       <c r="G560" s="16"/>
     </row>
-    <row r="561" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="8" t="s">
         <v>699</v>
       </c>
@@ -13040,7 +13100,7 @@
       <c r="F561" s="16"/>
       <c r="G561" s="16"/>
     </row>
-    <row r="562" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="8" t="s">
         <v>699</v>
       </c>
@@ -13059,7 +13119,7 @@
       <c r="F562" s="16"/>
       <c r="G562" s="16"/>
     </row>
-    <row r="563" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="8" t="s">
         <v>699</v>
       </c>
@@ -13078,7 +13138,7 @@
       <c r="F563" s="16"/>
       <c r="G563" s="16"/>
     </row>
-    <row r="564" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="8" t="s">
         <v>699</v>
       </c>
@@ -13097,7 +13157,7 @@
       <c r="F564" s="16"/>
       <c r="G564" s="16"/>
     </row>
-    <row r="565" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="8" t="s">
         <v>699</v>
       </c>
@@ -13116,7 +13176,7 @@
       <c r="F565" s="16"/>
       <c r="G565" s="16"/>
     </row>
-    <row r="566" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="8" t="s">
         <v>699</v>
       </c>
@@ -13135,7 +13195,7 @@
       <c r="F566" s="16"/>
       <c r="G566" s="16"/>
     </row>
-    <row r="567" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="8" t="s">
         <v>699</v>
       </c>
@@ -13154,7 +13214,7 @@
       <c r="F567" s="16"/>
       <c r="G567" s="16"/>
     </row>
-    <row r="568" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="8" t="s">
         <v>699</v>
       </c>
@@ -13173,7 +13233,7 @@
       <c r="F568" s="16"/>
       <c r="G568" s="16"/>
     </row>
-    <row r="569" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="8" t="s">
         <v>699</v>
       </c>
@@ -13192,7 +13252,7 @@
       <c r="F569" s="16"/>
       <c r="G569" s="16"/>
     </row>
-    <row r="570" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="8" t="s">
         <v>699</v>
       </c>
@@ -13211,7 +13271,7 @@
       <c r="F570" s="16"/>
       <c r="G570" s="16"/>
     </row>
-    <row r="571" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="8" t="s">
         <v>699</v>
       </c>
@@ -13230,7 +13290,7 @@
       <c r="F571" s="16"/>
       <c r="G571" s="16"/>
     </row>
-    <row r="572" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="8" t="s">
         <v>699</v>
       </c>
@@ -13249,7 +13309,7 @@
       <c r="F572" s="16"/>
       <c r="G572" s="16"/>
     </row>
-    <row r="573" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="8" t="s">
         <v>699</v>
       </c>
@@ -13268,7 +13328,7 @@
       <c r="F573" s="16"/>
       <c r="G573" s="16"/>
     </row>
-    <row r="574" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="8" t="s">
         <v>699</v>
       </c>
@@ -13287,7 +13347,7 @@
       <c r="F574" s="16"/>
       <c r="G574" s="16"/>
     </row>
-    <row r="575" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="8" t="s">
         <v>699</v>
       </c>
@@ -13306,7 +13366,7 @@
       <c r="F575" s="16"/>
       <c r="G575" s="16"/>
     </row>
-    <row r="576" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="8" t="s">
         <v>699</v>
       </c>
@@ -13325,7 +13385,7 @@
       <c r="F576" s="16"/>
       <c r="G576" s="16"/>
     </row>
-    <row r="577" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="8" t="s">
         <v>699</v>
       </c>
@@ -13344,7 +13404,7 @@
       <c r="F577" s="16"/>
       <c r="G577" s="16"/>
     </row>
-    <row r="578" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="8" t="s">
         <v>699</v>
       </c>
@@ -13363,7 +13423,7 @@
       <c r="F578" s="16"/>
       <c r="G578" s="16"/>
     </row>
-    <row r="579" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="8" t="s">
         <v>699</v>
       </c>
@@ -13382,7 +13442,7 @@
       <c r="F579" s="16"/>
       <c r="G579" s="16"/>
     </row>
-    <row r="580" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="8" t="s">
         <v>699</v>
       </c>
@@ -13401,7 +13461,7 @@
       <c r="F580" s="16"/>
       <c r="G580" s="16"/>
     </row>
-    <row r="581" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="8" t="s">
         <v>699</v>
       </c>
@@ -13420,7 +13480,7 @@
       <c r="F581" s="16"/>
       <c r="G581" s="16"/>
     </row>
-    <row r="582" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="8" t="s">
         <v>699</v>
       </c>
@@ -13439,7 +13499,7 @@
       <c r="F582" s="16"/>
       <c r="G582" s="16"/>
     </row>
-    <row r="583" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="8" t="s">
         <v>699</v>
       </c>
@@ -13458,7 +13518,7 @@
       <c r="F583" s="16"/>
       <c r="G583" s="16"/>
     </row>
-    <row r="584" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="8" t="s">
         <v>699</v>
       </c>
@@ -13477,7 +13537,7 @@
       <c r="F584" s="16"/>
       <c r="G584" s="16"/>
     </row>
-    <row r="585" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="8" t="s">
         <v>699</v>
       </c>
@@ -13496,7 +13556,7 @@
       <c r="F585" s="16"/>
       <c r="G585" s="16"/>
     </row>
-    <row r="586" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="8" t="s">
         <v>699</v>
       </c>
@@ -13515,7 +13575,7 @@
       <c r="F586" s="16"/>
       <c r="G586" s="16"/>
     </row>
-    <row r="587" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="8" t="s">
         <v>699</v>
       </c>
@@ -13534,7 +13594,7 @@
       <c r="F587" s="16"/>
       <c r="G587" s="16"/>
     </row>
-    <row r="588" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="8" t="s">
         <v>699</v>
       </c>
@@ -13553,7 +13613,7 @@
       <c r="F588" s="16"/>
       <c r="G588" s="16"/>
     </row>
-    <row r="589" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="8" t="s">
         <v>699</v>
       </c>
@@ -13572,7 +13632,7 @@
       <c r="F589" s="16"/>
       <c r="G589" s="16"/>
     </row>
-    <row r="590" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="13" t="s">
         <v>699</v>
       </c>
@@ -13591,7 +13651,7 @@
       <c r="F590" s="16"/>
       <c r="G590" s="16"/>
     </row>
-    <row r="591" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="18" t="s">
         <v>808</v>
       </c>
@@ -13603,7 +13663,7 @@
       </c>
       <c r="D591" s="21"/>
     </row>
-    <row r="592" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="18" t="s">
         <v>808</v>
       </c>
@@ -13615,7 +13675,7 @@
       </c>
       <c r="D592" s="21"/>
     </row>
-    <row r="593" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="18" t="s">
         <v>808</v>
       </c>
@@ -13627,7 +13687,7 @@
       </c>
       <c r="D593" s="21"/>
     </row>
-    <row r="594" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="18" t="s">
         <v>808</v>
       </c>
@@ -13639,7 +13699,7 @@
       </c>
       <c r="D594" s="21"/>
     </row>
-    <row r="595" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="18" t="s">
         <v>808</v>
       </c>
@@ -13651,7 +13711,7 @@
       </c>
       <c r="D595" s="21"/>
     </row>
-    <row r="596" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="18" t="s">
         <v>808</v>
       </c>
@@ -13663,7 +13723,7 @@
       </c>
       <c r="D596" s="21"/>
     </row>
-    <row r="597" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="18" t="s">
         <v>808</v>
       </c>
@@ -13675,7 +13735,7 @@
       </c>
       <c r="D597" s="21"/>
     </row>
-    <row r="598" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="18" t="s">
         <v>808</v>
       </c>
@@ -13687,7 +13747,7 @@
       </c>
       <c r="D598" s="21"/>
     </row>
-    <row r="599" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="18" t="s">
         <v>808</v>
       </c>
@@ -13699,7 +13759,7 @@
       </c>
       <c r="D599" s="21"/>
     </row>
-    <row r="600" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="18" t="s">
         <v>808</v>
       </c>
@@ -13711,7 +13771,7 @@
       </c>
       <c r="D600" s="21"/>
     </row>
-    <row r="601" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="18" t="s">
         <v>808</v>
       </c>
@@ -13723,7 +13783,7 @@
       </c>
       <c r="D601" s="21"/>
     </row>
-    <row r="602" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="18" t="s">
         <v>808</v>
       </c>
@@ -13735,7 +13795,7 @@
       </c>
       <c r="D602" s="21"/>
     </row>
-    <row r="603" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="18" t="s">
         <v>808</v>
       </c>
@@ -13747,7 +13807,7 @@
       </c>
       <c r="D603" s="21"/>
     </row>
-    <row r="604" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="18" t="s">
         <v>808</v>
       </c>
@@ -13759,7 +13819,7 @@
       </c>
       <c r="D604" s="21"/>
     </row>
-    <row r="605" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="18" t="s">
         <v>808</v>
       </c>
@@ -13771,7 +13831,7 @@
       </c>
       <c r="D605" s="21"/>
     </row>
-    <row r="606" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="18" t="s">
         <v>808</v>
       </c>
@@ -13783,7 +13843,7 @@
       </c>
       <c r="D606" s="21"/>
     </row>
-    <row r="607" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="18" t="s">
         <v>808</v>
       </c>
@@ -13795,7 +13855,7 @@
       </c>
       <c r="D607" s="21"/>
     </row>
-    <row r="608" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="18" t="s">
         <v>808</v>
       </c>
@@ -13807,7 +13867,7 @@
       </c>
       <c r="D608" s="21"/>
     </row>
-    <row r="609" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="18" t="s">
         <v>808</v>
       </c>
@@ -13819,7 +13879,7 @@
       </c>
       <c r="D609" s="21"/>
     </row>
-    <row r="610" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="18" t="s">
         <v>808</v>
       </c>
@@ -13831,7 +13891,7 @@
       </c>
       <c r="D610" s="21"/>
     </row>
-    <row r="611" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="18" t="s">
         <v>808</v>
       </c>
@@ -13843,7 +13903,7 @@
       </c>
       <c r="D611" s="21"/>
     </row>
-    <row r="612" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="18" t="s">
         <v>808</v>
       </c>
@@ -13855,7 +13915,7 @@
       </c>
       <c r="D612" s="21"/>
     </row>
-    <row r="613" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="18" t="s">
         <v>808</v>
       </c>
@@ -13867,7 +13927,7 @@
       </c>
       <c r="D613" s="21"/>
     </row>
-    <row r="614" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="18" t="s">
         <v>808</v>
       </c>
@@ -13879,7 +13939,7 @@
       </c>
       <c r="D614" s="21"/>
     </row>
-    <row r="615" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="18" t="s">
         <v>808</v>
       </c>
@@ -13891,7 +13951,7 @@
       </c>
       <c r="D615" s="21"/>
     </row>
-    <row r="616" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="18" t="s">
         <v>808</v>
       </c>
@@ -13903,7 +13963,7 @@
       </c>
       <c r="D616" s="21"/>
     </row>
-    <row r="617" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="18" t="s">
         <v>808</v>
       </c>
@@ -13915,7 +13975,7 @@
       </c>
       <c r="D617" s="21"/>
     </row>
-    <row r="618" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="18" t="s">
         <v>808</v>
       </c>
@@ -13927,7 +13987,7 @@
       </c>
       <c r="D618" s="21"/>
     </row>
-    <row r="619" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="18" t="s">
         <v>808</v>
       </c>
@@ -13939,7 +13999,7 @@
       </c>
       <c r="D619" s="21"/>
     </row>
-    <row r="620" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="18" t="s">
         <v>808</v>
       </c>
@@ -13951,7 +14011,7 @@
       </c>
       <c r="D620" s="21"/>
     </row>
-    <row r="621" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="18" t="s">
         <v>808</v>
       </c>
@@ -13963,7 +14023,7 @@
       </c>
       <c r="D621" s="21"/>
     </row>
-    <row r="622" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="18" t="s">
         <v>808</v>
       </c>
@@ -13975,7 +14035,7 @@
       </c>
       <c r="D622" s="21"/>
     </row>
-    <row r="623" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="18" t="s">
         <v>808</v>
       </c>
@@ -13987,7 +14047,7 @@
       </c>
       <c r="D623" s="21"/>
     </row>
-    <row r="624" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="18" t="s">
         <v>808</v>
       </c>
@@ -13999,7 +14059,7 @@
       </c>
       <c r="D624" s="21"/>
     </row>
-    <row r="625" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="18" t="s">
         <v>808</v>
       </c>
@@ -14011,7 +14071,7 @@
       </c>
       <c r="D625" s="21"/>
     </row>
-    <row r="626" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="18" t="s">
         <v>808</v>
       </c>
@@ -14023,7 +14083,7 @@
       </c>
       <c r="D626" s="21"/>
     </row>
-    <row r="627" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="18" t="s">
         <v>808</v>
       </c>
@@ -14035,7 +14095,7 @@
       </c>
       <c r="D627" s="21"/>
     </row>
-    <row r="628" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="18" t="s">
         <v>808</v>
       </c>
@@ -14047,7 +14107,7 @@
       </c>
       <c r="D628" s="21"/>
     </row>
-    <row r="629" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="18" t="s">
         <v>808</v>
       </c>
@@ -14059,7 +14119,7 @@
       </c>
       <c r="D629" s="21"/>
     </row>
-    <row r="630" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="18" t="s">
         <v>808</v>
       </c>
@@ -14071,7 +14131,7 @@
       </c>
       <c r="D630" s="21"/>
     </row>
-    <row r="631" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="18" t="s">
         <v>808</v>
       </c>
@@ -14083,7 +14143,7 @@
       </c>
       <c r="D631" s="21"/>
     </row>
-    <row r="632" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="18" t="s">
         <v>808</v>
       </c>
@@ -14095,7 +14155,7 @@
       </c>
       <c r="D632" s="21"/>
     </row>
-    <row r="633" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="18" t="s">
         <v>808</v>
       </c>
@@ -14107,7 +14167,7 @@
       </c>
       <c r="D633" s="21"/>
     </row>
-    <row r="634" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="18" t="s">
         <v>808</v>
       </c>
@@ -14119,7 +14179,7 @@
       </c>
       <c r="D634" s="21"/>
     </row>
-    <row r="635" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="18" t="s">
         <v>808</v>
       </c>
@@ -14131,7 +14191,7 @@
       </c>
       <c r="D635" s="21"/>
     </row>
-    <row r="636" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="18" t="s">
         <v>808</v>
       </c>
@@ -14143,7 +14203,7 @@
       </c>
       <c r="D636" s="21"/>
     </row>
-    <row r="637" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="18" t="s">
         <v>808</v>
       </c>
@@ -14155,7 +14215,7 @@
       </c>
       <c r="D637" s="21"/>
     </row>
-    <row r="638" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="18" t="s">
         <v>808</v>
       </c>
@@ -14167,7 +14227,7 @@
       </c>
       <c r="D638" s="21"/>
     </row>
-    <row r="639" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="18" t="s">
         <v>808</v>
       </c>
@@ -14179,7 +14239,7 @@
       </c>
       <c r="D639" s="21"/>
     </row>
-    <row r="640" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="18" t="s">
         <v>808</v>
       </c>
@@ -14191,7 +14251,7 @@
       </c>
       <c r="D640" s="21"/>
     </row>
-    <row r="641" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="18" t="s">
         <v>808</v>
       </c>
@@ -14203,7 +14263,7 @@
       </c>
       <c r="D641" s="21"/>
     </row>
-    <row r="642" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="18" t="s">
         <v>808</v>
       </c>
@@ -14215,7 +14275,7 @@
       </c>
       <c r="D642" s="21"/>
     </row>
-    <row r="643" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="18" t="s">
         <v>808</v>
       </c>
@@ -14227,7 +14287,7 @@
       </c>
       <c r="D643" s="21"/>
     </row>
-    <row r="644" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="18" t="s">
         <v>808</v>
       </c>
@@ -14239,7 +14299,7 @@
       </c>
       <c r="D644" s="21"/>
     </row>
-    <row r="645" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="18" t="s">
         <v>808</v>
       </c>
@@ -14251,7 +14311,7 @@
       </c>
       <c r="D645" s="21"/>
     </row>
-    <row r="646" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="18" t="s">
         <v>808</v>
       </c>
@@ -14263,7 +14323,7 @@
       </c>
       <c r="D646" s="21"/>
     </row>
-    <row r="647" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="18" t="s">
         <v>808</v>
       </c>
@@ -14275,7 +14335,7 @@
       </c>
       <c r="D647" s="21"/>
     </row>
-    <row r="648" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="18" t="s">
         <v>808</v>
       </c>
@@ -14287,7 +14347,7 @@
       </c>
       <c r="D648" s="21"/>
     </row>
-    <row r="649" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="18" t="s">
         <v>808</v>
       </c>
@@ -14299,7 +14359,7 @@
       </c>
       <c r="D649" s="21"/>
     </row>
-    <row r="650" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="18" t="s">
         <v>808</v>
       </c>
@@ -14311,7 +14371,7 @@
       </c>
       <c r="D650" s="21"/>
     </row>
-    <row r="651" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="18" t="s">
         <v>808</v>
       </c>
@@ -14323,7 +14383,7 @@
       </c>
       <c r="D651" s="21"/>
     </row>
-    <row r="652" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="18" t="s">
         <v>808</v>
       </c>
@@ -14335,7 +14395,7 @@
       </c>
       <c r="D652" s="21"/>
     </row>
-    <row r="653" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="18" t="s">
         <v>808</v>
       </c>
@@ -14347,7 +14407,7 @@
       </c>
       <c r="D653" s="21"/>
     </row>
-    <row r="654" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="18" t="s">
         <v>808</v>
       </c>
@@ -14359,7 +14419,7 @@
       </c>
       <c r="D654" s="21"/>
     </row>
-    <row r="655" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="18" t="s">
         <v>808</v>
       </c>
@@ -14371,7 +14431,7 @@
       </c>
       <c r="D655" s="21"/>
     </row>
-    <row r="656" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="18" t="s">
         <v>808</v>
       </c>
@@ -14383,7 +14443,7 @@
       </c>
       <c r="D656" s="21"/>
     </row>
-    <row r="657" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="18" t="s">
         <v>808</v>
       </c>
@@ -14395,7 +14455,7 @@
       </c>
       <c r="D657" s="21"/>
     </row>
-    <row r="658" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="18" t="s">
         <v>808</v>
       </c>
@@ -14407,7 +14467,7 @@
       </c>
       <c r="D658" s="21"/>
     </row>
-    <row r="659" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="18" t="s">
         <v>808</v>
       </c>
@@ -14419,7 +14479,7 @@
       </c>
       <c r="D659" s="21"/>
     </row>
-    <row r="660" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="18" t="s">
         <v>808</v>
       </c>
@@ -14431,7 +14491,7 @@
       </c>
       <c r="D660" s="21"/>
     </row>
-    <row r="661" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="18" t="s">
         <v>808</v>
       </c>
@@ -14443,7 +14503,7 @@
       </c>
       <c r="D661" s="21"/>
     </row>
-    <row r="662" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="18" t="s">
         <v>808</v>
       </c>
@@ -14455,7 +14515,7 @@
       </c>
       <c r="D662" s="21"/>
     </row>
-    <row r="663" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="18" t="s">
         <v>808</v>
       </c>
@@ -14467,7 +14527,7 @@
       </c>
       <c r="D663" s="21"/>
     </row>
-    <row r="664" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="18" t="s">
         <v>808</v>
       </c>
@@ -14479,7 +14539,7 @@
       </c>
       <c r="D664" s="21"/>
     </row>
-    <row r="665" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="18" t="s">
         <v>808</v>
       </c>
@@ -14491,7 +14551,7 @@
       </c>
       <c r="D665" s="21"/>
     </row>
-    <row r="666" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="18" t="s">
         <v>808</v>
       </c>
@@ -14503,7 +14563,7 @@
       </c>
       <c r="D666" s="21"/>
     </row>
-    <row r="667" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="18" t="s">
         <v>808</v>
       </c>
@@ -14515,7 +14575,7 @@
       </c>
       <c r="D667" s="21"/>
     </row>
-    <row r="668" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="18" t="s">
         <v>808</v>
       </c>
@@ -14527,7 +14587,7 @@
       </c>
       <c r="D668" s="21"/>
     </row>
-    <row r="669" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="18" t="s">
         <v>808</v>
       </c>
@@ -14539,7 +14599,7 @@
       </c>
       <c r="D669" s="21"/>
     </row>
-    <row r="670" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="18" t="s">
         <v>808</v>
       </c>
@@ -14551,7 +14611,7 @@
       </c>
       <c r="D670" s="21"/>
     </row>
-    <row r="671" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="18" t="s">
         <v>808</v>
       </c>
@@ -14563,7 +14623,7 @@
       </c>
       <c r="D671" s="21"/>
     </row>
-    <row r="672" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="18" t="s">
         <v>808</v>
       </c>
@@ -14575,7 +14635,7 @@
       </c>
       <c r="D672" s="21"/>
     </row>
-    <row r="673" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="18" t="s">
         <v>808</v>
       </c>
@@ -14587,7 +14647,7 @@
       </c>
       <c r="D673" s="21"/>
     </row>
-    <row r="674" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="18" t="s">
         <v>808</v>
       </c>
@@ -14599,7 +14659,7 @@
       </c>
       <c r="D674" s="21"/>
     </row>
-    <row r="675" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="18" t="s">
         <v>808</v>
       </c>
@@ -14610,6 +14670,193 @@
         <v>894</v>
       </c>
       <c r="D675" s="21"/>
+    </row>
+    <row r="676" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B676" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C676" s="24" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B677" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C677" s="24" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B678" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C678" s="24" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B679" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C679" s="24" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B680" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C680" s="24" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B681" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C681" s="24" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B682" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C682" s="24" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B683" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C683" s="24" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B684" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C684" s="24" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B685" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C685" s="24" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B686" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C686" s="24" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B687" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C687" s="24" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B688" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C688" s="24" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B689" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C689" s="24" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B690" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C690" s="24" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B691" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C691" s="24" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="B692" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C692" s="24" t="s">
+        <v>911</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C591:C675">
@@ -14635,19 +14882,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d35670d1-454e-4581-9c60-3ce39c5d9ee1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="60c28f28-bf1b-4bf6-afa9-1eedf1fa7243" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D2E377AF88B394A8F9E46C13866E856" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="932fe9f821a27398708fb00d3c1f8594">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d35670d1-454e-4581-9c60-3ce39c5d9ee1" xmlns:ns3="60c28f28-bf1b-4bf6-afa9-1eedf1fa7243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3073049aa6af842ef2c93a7ab6192d4a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14925,6 +15159,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d35670d1-454e-4581-9c60-3ce39c5d9ee1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="60c28f28-bf1b-4bf6-afa9-1eedf1fa7243" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6E2B98-4DCD-4B76-B3E8-301EE4D9C660}">
   <ds:schemaRefs>
@@ -14934,24 +15181,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B132BD4-7401-4DC8-A92F-0D275D719FC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60c28f28-bf1b-4bf6-afa9-1eedf1fa7243"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d35670d1-454e-4581-9c60-3ce39c5d9ee1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8644DA7E-834B-4F66-A751-78B72098B1D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14969,4 +15198,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B132BD4-7401-4DC8-A92F-0D275D719FC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60c28f28-bf1b-4bf6-afa9-1eedf1fa7243"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d35670d1-454e-4581-9c60-3ce39c5d9ee1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mapeamento de uso de IA nos processos .xlsx
+++ b/Mapeamento de uso de IA nos processos .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe_rossatto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC4BCD-56D0-46F0-B8F8-4A0F4B332763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C51E8D0-BD69-4B16-86B2-4A8A7F44B2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3938B2CD-D01D-4623-8162-D80B751FC53B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="895">
   <si>
     <t>Área</t>
   </si>
@@ -2741,57 +2741,6 @@
   </si>
   <si>
     <t>COOPERATIVAS ESCOLARES - Oficinas com cooperados</t>
-  </si>
-  <si>
-    <t>Reunião estratégica com gerentes em MG</t>
-  </si>
-  <si>
-    <t>Apoio no ciclo assemblear em MG</t>
-  </si>
-  <si>
-    <t>Organização Eventos com coordenadores de Núcleo em MG</t>
-  </si>
-  <si>
-    <t>Sensibilização dos embaixadores em MG</t>
-  </si>
-  <si>
-    <t>Organização dos materiais para as agências de MG</t>
-  </si>
-  <si>
-    <t>Visitas institucionais em apoio aos gerentes em MG</t>
-  </si>
-  <si>
-    <t>Oficinas de Educação Financeira em MG</t>
-  </si>
-  <si>
-    <t>Mapear fornecedores de palestras, cursos e fornecedores locais, para execução de cursos estratégicos para os associados em MG</t>
-  </si>
-  <si>
-    <t>Colaborar na gestão e organização dos cursos em MG</t>
-  </si>
-  <si>
-    <t>Mapeamento das ações que são executadas em MG</t>
-  </si>
-  <si>
-    <t>Apoio aos embaixadores de MG</t>
-  </si>
-  <si>
-    <t>Escrever emails sobre propostas de ações em MG</t>
-  </si>
-  <si>
-    <t>Visitas estratégicas nas agências  de MG</t>
-  </si>
-  <si>
-    <t>Apoiar nas Inaugurações das agências MG</t>
-  </si>
-  <si>
-    <t>Visitas as escolas em MG</t>
-  </si>
-  <si>
-    <t>Orientações, suporte as agências, cadastro de eventos, acompanhamento em MG</t>
-  </si>
-  <si>
-    <t>Compras de materiais para os programas MG</t>
   </si>
 </sst>
 </file>
@@ -2865,7 +2814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,7 +2899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2998,9 +2947,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3013,14 +2959,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3103,8 +3043,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}" name="Tabela1" displayName="Tabela1" ref="A1:G692" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:G692" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}" name="Tabela1" displayName="Tabela1" ref="A1:G675" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:G675" xr:uid="{9FB833B0-F9ED-4EA5-90C3-1CC80801A25B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D31221B2-0DE6-4870-999B-FE04BC1AD4EA}" name="Área" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{25B99301-797A-47F7-990A-B80805D70B94}" name="Centro de Custo"/>
@@ -3435,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6B45FF-EBA7-44BE-87A3-76D432B92CF4}">
-  <dimension ref="A1:G692"/>
+  <dimension ref="A1:G675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D701" sqref="D701"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3475,7 +3415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3492,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +3517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -3594,7 +3534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3611,7 +3551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -3628,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -3662,7 +3602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -3713,7 +3653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -3736,7 +3676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -3753,7 +3693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -3770,7 +3710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +3727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -3804,7 +3744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +3761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -3861,7 +3801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +3818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +3835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -3918,7 +3858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -3941,7 +3881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +3921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -3998,7 +3938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -4021,7 +3961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -4044,7 +3984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -4067,7 +4007,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -4090,7 +4030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
@@ -4153,7 +4093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
@@ -4190,7 +4130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
@@ -4204,7 +4144,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
@@ -4221,7 +4161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
@@ -4238,7 +4178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -4284,7 +4224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
@@ -4315,7 +4255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -4338,7 +4278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
@@ -4352,7 +4292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -4375,7 +4315,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4338,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
@@ -4421,7 +4361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -4444,7 +4384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -4461,7 +4401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4424,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
@@ -4501,7 +4441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4464,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
@@ -4544,7 +4484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -4564,7 +4504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -4584,7 +4524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>7</v>
       </c>
@@ -4607,7 +4547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +4570,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>7</v>
       </c>
@@ -4653,7 +4593,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
@@ -4676,7 +4616,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>7</v>
       </c>
@@ -4693,7 +4633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
@@ -4716,7 +4656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
@@ -4739,7 +4679,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>7</v>
       </c>
@@ -4762,7 +4702,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>7</v>
       </c>
@@ -4779,7 +4719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
@@ -4807,7 +4747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>7</v>
       </c>
@@ -4824,7 +4764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>7</v>
       </c>
@@ -4841,7 +4781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>7</v>
       </c>
@@ -4858,7 +4798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
@@ -4904,7 +4844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>7</v>
       </c>
@@ -4918,7 +4858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>7</v>
       </c>
@@ -4941,7 +4881,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>7</v>
       </c>
@@ -4958,7 +4898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +4921,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>7</v>
       </c>
@@ -4998,7 +4938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +4961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>7</v>
       </c>
@@ -5044,7 +4984,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>7</v>
       </c>
@@ -5061,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>7</v>
       </c>
@@ -5075,7 +5015,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5029,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>7</v>
       </c>
@@ -5106,7 +5046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5069,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>7</v>
       </c>
@@ -5146,7 +5086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>7</v>
       </c>
@@ -5163,7 +5103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +5120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5143,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>7</v>
       </c>
@@ -5226,7 +5166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>7</v>
       </c>
@@ -5263,7 +5203,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -5280,7 +5220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +5243,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>7</v>
       </c>
@@ -5326,7 +5266,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>7</v>
       </c>
@@ -5349,7 +5289,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>7</v>
       </c>
@@ -5372,7 +5312,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5335,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5358,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>7</v>
       </c>
@@ -5441,7 +5381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>7</v>
       </c>
@@ -5464,7 +5404,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5427,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>213</v>
       </c>
@@ -5501,7 +5441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>213</v>
       </c>
@@ -5521,7 +5461,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>213</v>
       </c>
@@ -5541,7 +5481,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>213</v>
       </c>
@@ -5561,7 +5501,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>213</v>
       </c>
@@ -5581,7 +5521,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>213</v>
       </c>
@@ -5598,7 +5538,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>213</v>
       </c>
@@ -5612,7 +5552,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>213</v>
       </c>
@@ -5632,7 +5572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>213</v>
       </c>
@@ -5652,7 +5592,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>213</v>
       </c>
@@ -5672,7 +5612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>213</v>
       </c>
@@ -5686,7 +5626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>213</v>
       </c>
@@ -5703,7 +5643,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>213</v>
       </c>
@@ -5717,7 +5657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>213</v>
       </c>
@@ -5737,7 +5677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>213</v>
       </c>
@@ -5751,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>213</v>
       </c>
@@ -5771,7 +5711,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>213</v>
       </c>
@@ -5791,7 +5731,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>213</v>
       </c>
@@ -5805,7 +5745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>213</v>
       </c>
@@ -5825,7 +5765,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>213</v>
       </c>
@@ -5839,7 +5779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>213</v>
       </c>
@@ -5859,7 +5799,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>213</v>
       </c>
@@ -5873,7 +5813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>213</v>
       </c>
@@ -5893,7 +5833,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>213</v>
       </c>
@@ -5913,7 +5853,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>213</v>
       </c>
@@ -5927,7 +5867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>213</v>
       </c>
@@ -5947,7 +5887,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>213</v>
       </c>
@@ -5967,7 +5907,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>213</v>
       </c>
@@ -5987,7 +5927,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>213</v>
       </c>
@@ -6007,7 +5947,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>213</v>
       </c>
@@ -6027,7 +5967,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>213</v>
       </c>
@@ -6047,7 +5987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>213</v>
       </c>
@@ -6067,7 +6007,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>213</v>
       </c>
@@ -6087,7 +6027,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>213</v>
       </c>
@@ -6104,7 +6044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>213</v>
       </c>
@@ -6124,7 +6064,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>213</v>
       </c>
@@ -6141,7 +6081,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>213</v>
       </c>
@@ -6161,7 +6101,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>213</v>
       </c>
@@ -6181,7 +6121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>213</v>
       </c>
@@ -6201,7 +6141,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>213</v>
       </c>
@@ -6221,7 +6161,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>213</v>
       </c>
@@ -6241,7 +6181,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>213</v>
       </c>
@@ -6255,7 +6195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>213</v>
       </c>
@@ -6269,7 +6209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>213</v>
       </c>
@@ -6289,7 +6229,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>213</v>
       </c>
@@ -6309,7 +6249,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>213</v>
       </c>
@@ -6329,7 +6269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>213</v>
       </c>
@@ -6343,7 +6283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>213</v>
       </c>
@@ -6357,7 +6297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>213</v>
       </c>
@@ -6377,7 +6317,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>213</v>
       </c>
@@ -6397,7 +6337,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>213</v>
       </c>
@@ -6417,7 +6357,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>213</v>
       </c>
@@ -6437,7 +6377,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>213</v>
       </c>
@@ -6451,7 +6391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>213</v>
       </c>
@@ -6465,7 +6405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>213</v>
       </c>
@@ -6482,7 +6422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>213</v>
       </c>
@@ -6499,7 +6439,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>213</v>
       </c>
@@ -6519,7 +6459,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>213</v>
       </c>
@@ -6539,7 +6479,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>213</v>
       </c>
@@ -6559,7 +6499,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>213</v>
       </c>
@@ -6579,7 +6519,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>213</v>
       </c>
@@ -6593,7 +6533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>213</v>
       </c>
@@ -6613,7 +6553,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>213</v>
       </c>
@@ -6627,7 +6567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>213</v>
       </c>
@@ -6641,7 +6581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>213</v>
       </c>
@@ -6655,7 +6595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>213</v>
       </c>
@@ -6675,7 +6615,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>213</v>
       </c>
@@ -6692,7 +6632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>213</v>
       </c>
@@ -6712,7 +6652,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>213</v>
       </c>
@@ -6732,7 +6672,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>213</v>
       </c>
@@ -6752,7 +6692,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>213</v>
       </c>
@@ -6772,7 +6712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>213</v>
       </c>
@@ -6792,7 +6732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>213</v>
       </c>
@@ -6806,7 +6746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>213</v>
       </c>
@@ -6826,7 +6766,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>213</v>
       </c>
@@ -6846,7 +6786,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>213</v>
       </c>
@@ -6866,7 +6806,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>328</v>
       </c>
@@ -6889,7 +6829,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>328</v>
       </c>
@@ -6912,7 +6852,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>328</v>
       </c>
@@ -6935,7 +6875,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>328</v>
       </c>
@@ -6955,7 +6895,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>328</v>
       </c>
@@ -6975,7 +6915,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>328</v>
       </c>
@@ -6995,7 +6935,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>344</v>
       </c>
@@ -7018,7 +6958,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>344</v>
       </c>
@@ -7041,7 +6981,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>344</v>
       </c>
@@ -7064,7 +7004,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>344</v>
       </c>
@@ -7087,7 +7027,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>344</v>
       </c>
@@ -7110,7 +7050,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>344</v>
       </c>
@@ -7133,7 +7073,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>344</v>
       </c>
@@ -7156,7 +7096,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>344</v>
       </c>
@@ -7179,7 +7119,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>344</v>
       </c>
@@ -7202,7 +7142,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>344</v>
       </c>
@@ -7225,7 +7165,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>344</v>
       </c>
@@ -7248,7 +7188,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>344</v>
       </c>
@@ -7271,7 +7211,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>344</v>
       </c>
@@ -7288,7 +7228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>344</v>
       </c>
@@ -7305,7 +7245,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>344</v>
       </c>
@@ -7322,7 +7262,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>344</v>
       </c>
@@ -7342,7 +7282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>344</v>
       </c>
@@ -7362,7 +7302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>344</v>
       </c>
@@ -7379,7 +7319,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>344</v>
       </c>
@@ -7393,7 +7333,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>344</v>
       </c>
@@ -7413,7 +7353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>344</v>
       </c>
@@ -7430,7 +7370,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>344</v>
       </c>
@@ -7450,7 +7390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
         <v>344</v>
       </c>
@@ -7467,7 +7407,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>344</v>
       </c>
@@ -7484,7 +7424,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>344</v>
       </c>
@@ -7498,7 +7438,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>344</v>
       </c>
@@ -7515,7 +7455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>344</v>
       </c>
@@ -7529,7 +7469,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>344</v>
       </c>
@@ -7543,7 +7483,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>344</v>
       </c>
@@ -7560,7 +7500,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>344</v>
       </c>
@@ -7577,7 +7517,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
         <v>344</v>
       </c>
@@ -7597,7 +7537,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>344</v>
       </c>
@@ -7614,7 +7554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
         <v>344</v>
       </c>
@@ -7628,7 +7568,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
         <v>344</v>
       </c>
@@ -7645,7 +7585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
         <v>344</v>
       </c>
@@ -7662,7 +7602,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>344</v>
       </c>
@@ -7682,7 +7622,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
         <v>344</v>
       </c>
@@ -7699,7 +7639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>344</v>
       </c>
@@ -7713,7 +7653,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
         <v>344</v>
       </c>
@@ -7730,7 +7670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
         <v>344</v>
       </c>
@@ -7747,7 +7687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
         <v>344</v>
       </c>
@@ -7764,7 +7704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
         <v>344</v>
       </c>
@@ -7778,7 +7718,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
         <v>344</v>
       </c>
@@ -7792,7 +7732,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>344</v>
       </c>
@@ -7806,7 +7746,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>344</v>
       </c>
@@ -7820,7 +7760,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>344</v>
       </c>
@@ -7834,7 +7774,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
         <v>344</v>
       </c>
@@ -7848,7 +7788,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>344</v>
       </c>
@@ -7862,7 +7802,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
         <v>344</v>
       </c>
@@ -7879,7 +7819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>344</v>
       </c>
@@ -7896,7 +7836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
         <v>344</v>
       </c>
@@ -7913,7 +7853,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>344</v>
       </c>
@@ -7927,7 +7867,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
         <v>344</v>
       </c>
@@ -7941,7 +7881,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>344</v>
       </c>
@@ -7955,7 +7895,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
         <v>344</v>
       </c>
@@ -7972,7 +7912,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
         <v>344</v>
       </c>
@@ -7989,7 +7929,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
         <v>344</v>
       </c>
@@ -8006,7 +7946,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>344</v>
       </c>
@@ -8026,7 +7966,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
         <v>344</v>
       </c>
@@ -8043,7 +7983,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>344</v>
       </c>
@@ -8060,7 +8000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
         <v>344</v>
       </c>
@@ -8080,7 +8020,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>344</v>
       </c>
@@ -8097,7 +8037,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>344</v>
       </c>
@@ -8114,7 +8054,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>344</v>
       </c>
@@ -8131,7 +8071,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
         <v>344</v>
       </c>
@@ -8148,7 +8088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>344</v>
       </c>
@@ -8165,7 +8105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
         <v>344</v>
       </c>
@@ -8182,7 +8122,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>344</v>
       </c>
@@ -8199,7 +8139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
         <v>344</v>
       </c>
@@ -8216,7 +8156,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>344</v>
       </c>
@@ -8233,7 +8173,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>344</v>
       </c>
@@ -8250,7 +8190,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>344</v>
       </c>
@@ -8267,7 +8207,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>344</v>
       </c>
@@ -8284,7 +8224,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>344</v>
       </c>
@@ -8301,7 +8241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
         <v>344</v>
       </c>
@@ -8318,7 +8258,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>344</v>
       </c>
@@ -8335,7 +8275,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
         <v>344</v>
       </c>
@@ -8352,7 +8292,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>344</v>
       </c>
@@ -8369,7 +8309,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>344</v>
       </c>
@@ -8386,7 +8326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>344</v>
       </c>
@@ -8403,7 +8343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>344</v>
       </c>
@@ -8417,7 +8357,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>344</v>
       </c>
@@ -8437,7 +8377,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
         <v>344</v>
       </c>
@@ -8454,7 +8394,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>344</v>
       </c>
@@ -8468,7 +8408,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="7" t="s">
         <v>344</v>
       </c>
@@ -8488,7 +8428,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>344</v>
       </c>
@@ -8499,7 +8439,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
         <v>344</v>
       </c>
@@ -8510,7 +8450,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>344</v>
       </c>
@@ -8521,7 +8461,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
         <v>344</v>
       </c>
@@ -8532,7 +8472,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
         <v>344</v>
       </c>
@@ -8543,7 +8483,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
         <v>344</v>
       </c>
@@ -8554,7 +8494,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>344</v>
       </c>
@@ -8565,7 +8505,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
         <v>344</v>
       </c>
@@ -8576,7 +8516,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>344</v>
       </c>
@@ -8587,7 +8527,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
         <v>344</v>
       </c>
@@ -8598,7 +8538,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>344</v>
       </c>
@@ -8609,7 +8549,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>344</v>
       </c>
@@ -8620,7 +8560,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>344</v>
       </c>
@@ -8631,7 +8571,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
         <v>344</v>
       </c>
@@ -8642,7 +8582,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
         <v>344</v>
       </c>
@@ -8653,7 +8593,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
         <v>344</v>
       </c>
@@ -8664,7 +8604,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>344</v>
       </c>
@@ -8675,7 +8615,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
         <v>344</v>
       </c>
@@ -8686,7 +8626,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
         <v>344</v>
       </c>
@@ -8697,7 +8637,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
         <v>344</v>
       </c>
@@ -8708,7 +8648,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
         <v>344</v>
       </c>
@@ -8719,7 +8659,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="7" t="s">
         <v>344</v>
       </c>
@@ -8730,7 +8670,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>344</v>
       </c>
@@ -8741,7 +8681,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
         <v>344</v>
       </c>
@@ -8752,7 +8692,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>344</v>
       </c>
@@ -8763,7 +8703,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
         <v>344</v>
       </c>
@@ -8774,7 +8714,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
         <v>344</v>
       </c>
@@ -8785,7 +8725,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
         <v>344</v>
       </c>
@@ -8796,7 +8736,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>344</v>
       </c>
@@ -8807,7 +8747,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
         <v>344</v>
       </c>
@@ -8818,7 +8758,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>344</v>
       </c>
@@ -8829,7 +8769,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
         <v>344</v>
       </c>
@@ -8840,7 +8780,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
         <v>344</v>
       </c>
@@ -8851,7 +8791,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
         <v>344</v>
       </c>
@@ -8862,7 +8802,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>344</v>
       </c>
@@ -8873,7 +8813,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
         <v>344</v>
       </c>
@@ -8884,7 +8824,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>344</v>
       </c>
@@ -8895,7 +8835,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
         <v>344</v>
       </c>
@@ -8906,7 +8846,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>344</v>
       </c>
@@ -8917,7 +8857,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
         <v>344</v>
       </c>
@@ -8928,7 +8868,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>344</v>
       </c>
@@ -8939,7 +8879,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="7" t="s">
         <v>344</v>
       </c>
@@ -8950,7 +8890,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>344</v>
       </c>
@@ -8961,7 +8901,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
         <v>344</v>
       </c>
@@ -8972,7 +8912,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>344</v>
       </c>
@@ -8983,7 +8923,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
         <v>344</v>
       </c>
@@ -8994,7 +8934,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>344</v>
       </c>
@@ -9005,7 +8945,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
         <v>344</v>
       </c>
@@ -9016,7 +8956,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>344</v>
       </c>
@@ -9027,7 +8967,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
         <v>344</v>
       </c>
@@ -9038,7 +8978,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>344</v>
       </c>
@@ -9049,7 +8989,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
         <v>344</v>
       </c>
@@ -9060,7 +9000,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>344</v>
       </c>
@@ -9071,7 +9011,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
         <v>344</v>
       </c>
@@ -9091,7 +9031,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>344</v>
       </c>
@@ -9102,7 +9042,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
         <v>344</v>
       </c>
@@ -9113,7 +9053,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
         <v>344</v>
       </c>
@@ -9124,7 +9064,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
         <v>344</v>
       </c>
@@ -9135,7 +9075,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
         <v>344</v>
       </c>
@@ -9146,7 +9086,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
         <v>344</v>
       </c>
@@ -9157,7 +9097,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
         <v>344</v>
       </c>
@@ -9168,7 +9108,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
         <v>344</v>
       </c>
@@ -9179,7 +9119,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
         <v>344</v>
       </c>
@@ -9190,7 +9130,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
         <v>344</v>
       </c>
@@ -9201,7 +9141,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
         <v>344</v>
       </c>
@@ -9212,7 +9152,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
         <v>344</v>
       </c>
@@ -9223,7 +9163,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
         <v>344</v>
       </c>
@@ -9246,7 +9186,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
         <v>344</v>
       </c>
@@ -9269,7 +9209,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
         <v>344</v>
       </c>
@@ -9292,7 +9232,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="7" t="s">
         <v>344</v>
       </c>
@@ -9315,7 +9255,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
         <v>344</v>
       </c>
@@ -9338,7 +9278,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
         <v>344</v>
       </c>
@@ -9361,7 +9301,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
         <v>344</v>
       </c>
@@ -9384,7 +9324,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
         <v>344</v>
       </c>
@@ -9404,7 +9344,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
         <v>344</v>
       </c>
@@ -9424,7 +9364,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>344</v>
       </c>
@@ -9447,7 +9387,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>344</v>
       </c>
@@ -9470,7 +9410,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
         <v>344</v>
       </c>
@@ -9490,7 +9430,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
         <v>344</v>
       </c>
@@ -9513,7 +9453,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
         <v>344</v>
       </c>
@@ -9536,7 +9476,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
         <v>344</v>
       </c>
@@ -9559,7 +9499,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
         <v>344</v>
       </c>
@@ -9579,7 +9519,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
         <v>344</v>
       </c>
@@ -9593,7 +9533,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
         <v>344</v>
       </c>
@@ -9613,7 +9553,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
         <v>344</v>
       </c>
@@ -9633,7 +9573,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
         <v>344</v>
       </c>
@@ -9653,7 +9593,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
         <v>344</v>
       </c>
@@ -9673,7 +9613,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
         <v>344</v>
       </c>
@@ -9693,7 +9633,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
         <v>344</v>
       </c>
@@ -9713,7 +9653,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
         <v>344</v>
       </c>
@@ -9736,7 +9676,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
         <v>344</v>
       </c>
@@ -9756,7 +9696,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
         <v>344</v>
       </c>
@@ -9776,7 +9716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
         <v>344</v>
       </c>
@@ -9796,7 +9736,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
         <v>344</v>
       </c>
@@ -9816,7 +9756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
         <v>344</v>
       </c>
@@ -9839,7 +9779,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
         <v>344</v>
       </c>
@@ -9859,7 +9799,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
         <v>344</v>
       </c>
@@ -9879,7 +9819,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
         <v>344</v>
       </c>
@@ -9899,7 +9839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>344</v>
       </c>
@@ -9919,7 +9859,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
         <v>344</v>
       </c>
@@ -9939,7 +9879,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
         <v>344</v>
       </c>
@@ -9962,7 +9902,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
         <v>344</v>
       </c>
@@ -9982,7 +9922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
         <v>344</v>
       </c>
@@ -10002,7 +9942,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
         <v>344</v>
       </c>
@@ -10022,7 +9962,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
         <v>344</v>
       </c>
@@ -10042,7 +9982,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
         <v>344</v>
       </c>
@@ -10065,7 +10005,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
         <v>344</v>
       </c>
@@ -10088,7 +10028,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
         <v>344</v>
       </c>
@@ -10108,7 +10048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>344</v>
       </c>
@@ -10128,7 +10068,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
         <v>344</v>
       </c>
@@ -10148,7 +10088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
         <v>344</v>
       </c>
@@ -10168,7 +10108,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="7" t="s">
         <v>344</v>
       </c>
@@ -10188,7 +10128,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>344</v>
       </c>
@@ -10211,7 +10151,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>344</v>
       </c>
@@ -10234,7 +10174,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="7" t="s">
         <v>344</v>
       </c>
@@ -10257,7 +10197,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="7" t="s">
         <v>344</v>
       </c>
@@ -10280,7 +10220,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="7" t="s">
         <v>344</v>
       </c>
@@ -10294,7 +10234,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
         <v>344</v>
       </c>
@@ -10308,7 +10248,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>344</v>
       </c>
@@ -10322,7 +10262,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="7" t="s">
         <v>344</v>
       </c>
@@ -10336,7 +10276,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="7" t="s">
         <v>344</v>
       </c>
@@ -10350,7 +10290,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="7" t="s">
         <v>344</v>
       </c>
@@ -10364,7 +10304,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="7" t="s">
         <v>344</v>
       </c>
@@ -10378,7 +10318,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="7" t="s">
         <v>344</v>
       </c>
@@ -10392,7 +10332,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="7" t="s">
         <v>344</v>
       </c>
@@ -10406,7 +10346,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="7" t="s">
         <v>344</v>
       </c>
@@ -10420,7 +10360,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="7" t="s">
         <v>344</v>
       </c>
@@ -10434,7 +10374,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="7" t="s">
         <v>344</v>
       </c>
@@ -10448,7 +10388,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="7" t="s">
         <v>344</v>
       </c>
@@ -10462,7 +10402,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="7" t="s">
         <v>344</v>
       </c>
@@ -10476,7 +10416,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="7" t="s">
         <v>344</v>
       </c>
@@ -10490,7 +10430,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="7" t="s">
         <v>344</v>
       </c>
@@ -10504,7 +10444,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="7" t="s">
         <v>344</v>
       </c>
@@ -10518,7 +10458,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="7" t="s">
         <v>344</v>
       </c>
@@ -10532,7 +10472,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="7" t="s">
         <v>344</v>
       </c>
@@ -10546,7 +10486,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="7" t="s">
         <v>344</v>
       </c>
@@ -10560,7 +10500,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="7" t="s">
         <v>344</v>
       </c>
@@ -10574,7 +10514,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="7" t="s">
         <v>344</v>
       </c>
@@ -10588,7 +10528,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>344</v>
       </c>
@@ -10602,7 +10542,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="7" t="s">
         <v>344</v>
       </c>
@@ -10616,7 +10556,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="7" t="s">
         <v>344</v>
       </c>
@@ -10630,7 +10570,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="7" t="s">
         <v>344</v>
       </c>
@@ -10644,7 +10584,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
         <v>344</v>
       </c>
@@ -10658,7 +10598,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="7" t="s">
         <v>344</v>
       </c>
@@ -10672,7 +10612,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="7" t="s">
         <v>344</v>
       </c>
@@ -10686,7 +10626,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="7" t="s">
         <v>344</v>
       </c>
@@ -10700,7 +10640,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="7" t="s">
         <v>344</v>
       </c>
@@ -10714,7 +10654,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="7" t="s">
         <v>344</v>
       </c>
@@ -10728,7 +10668,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="7" t="s">
         <v>344</v>
       </c>
@@ -10742,7 +10682,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="7" t="s">
         <v>344</v>
       </c>
@@ -10756,7 +10696,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="7" t="s">
         <v>344</v>
       </c>
@@ -10770,7 +10710,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="7" t="s">
         <v>344</v>
       </c>
@@ -10784,7 +10724,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="7" t="s">
         <v>344</v>
       </c>
@@ -10798,7 +10738,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="7" t="s">
         <v>344</v>
       </c>
@@ -10812,7 +10752,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="7" t="s">
         <v>344</v>
       </c>
@@ -10826,7 +10766,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="7" t="s">
         <v>344</v>
       </c>
@@ -10840,7 +10780,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="7" t="s">
         <v>344</v>
       </c>
@@ -10854,7 +10794,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="7" t="s">
         <v>344</v>
       </c>
@@ -10868,7 +10808,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="7" t="s">
         <v>344</v>
       </c>
@@ -10882,7 +10822,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="7" t="s">
         <v>344</v>
       </c>
@@ -10896,7 +10836,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="7" t="s">
         <v>344</v>
       </c>
@@ -10910,7 +10850,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="7" t="s">
         <v>344</v>
       </c>
@@ -10924,7 +10864,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="7" t="s">
         <v>344</v>
       </c>
@@ -10938,7 +10878,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="7" t="s">
         <v>344</v>
       </c>
@@ -10952,7 +10892,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="7" t="s">
         <v>344</v>
       </c>
@@ -10966,7 +10906,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="7" t="s">
         <v>344</v>
       </c>
@@ -10980,7 +10920,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="7" t="s">
         <v>344</v>
       </c>
@@ -10994,7 +10934,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="7" t="s">
         <v>344</v>
       </c>
@@ -11008,7 +10948,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="7" t="s">
         <v>344</v>
       </c>
@@ -11022,7 +10962,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="7" t="s">
         <v>344</v>
       </c>
@@ -11036,7 +10976,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="7" t="s">
         <v>344</v>
       </c>
@@ -11050,7 +10990,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="7" t="s">
         <v>344</v>
       </c>
@@ -11064,7 +11004,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="7" t="s">
         <v>344</v>
       </c>
@@ -11078,7 +11018,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="7" t="s">
         <v>344</v>
       </c>
@@ -11092,7 +11032,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="7" t="s">
         <v>344</v>
       </c>
@@ -11106,7 +11046,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="7" t="s">
         <v>344</v>
       </c>
@@ -11120,7 +11060,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="7" t="s">
         <v>344</v>
       </c>
@@ -11134,7 +11074,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="7" t="s">
         <v>344</v>
       </c>
@@ -11148,7 +11088,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="7" t="s">
         <v>344</v>
       </c>
@@ -11162,7 +11102,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="7" t="s">
         <v>344</v>
       </c>
@@ -11176,7 +11116,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="7" t="s">
         <v>344</v>
       </c>
@@ -11190,7 +11130,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="7" t="s">
         <v>344</v>
       </c>
@@ -11204,7 +11144,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="7" t="s">
         <v>344</v>
       </c>
@@ -11218,7 +11158,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="7" t="s">
         <v>344</v>
       </c>
@@ -11232,7 +11172,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="8" t="s">
         <v>666</v>
       </c>
@@ -11242,14 +11182,14 @@
       <c r="C456" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="D456" s="17" t="s">
+      <c r="D456" s="21" t="s">
         <v>669</v>
       </c>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="8" t="s">
         <v>666</v>
       </c>
@@ -11259,14 +11199,14 @@
       <c r="C457" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="D457" s="17" t="s">
+      <c r="D457" s="21" t="s">
         <v>671</v>
       </c>
       <c r="E457" s="16"/>
       <c r="F457" s="16"/>
       <c r="G457" s="16"/>
     </row>
-    <row r="458" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="8" t="s">
         <v>666</v>
       </c>
@@ -11289,7 +11229,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="8" t="s">
         <v>666</v>
       </c>
@@ -11308,7 +11248,7 @@
       <c r="F459" s="16"/>
       <c r="G459" s="16"/>
     </row>
-    <row r="460" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="8" t="s">
         <v>666</v>
       </c>
@@ -11325,7 +11265,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="8" t="s">
         <v>666</v>
       </c>
@@ -11342,7 +11282,7 @@
       <c r="F461" s="16"/>
       <c r="G461" s="16"/>
     </row>
-    <row r="462" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="8" t="s">
         <v>666</v>
       </c>
@@ -11359,7 +11299,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="8" t="s">
         <v>666</v>
       </c>
@@ -11376,7 +11316,7 @@
       <c r="F463" s="16"/>
       <c r="G463" s="16"/>
     </row>
-    <row r="464" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="8" t="s">
         <v>666</v>
       </c>
@@ -11393,7 +11333,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="8" t="s">
         <v>666</v>
       </c>
@@ -11410,7 +11350,7 @@
       <c r="F465" s="16"/>
       <c r="G465" s="16"/>
     </row>
-    <row r="466" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="8" t="s">
         <v>666</v>
       </c>
@@ -11427,7 +11367,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="8" t="s">
         <v>666</v>
       </c>
@@ -11444,7 +11384,7 @@
       <c r="F467" s="16"/>
       <c r="G467" s="16"/>
     </row>
-    <row r="468" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="8" t="s">
         <v>666</v>
       </c>
@@ -11461,7 +11401,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="8" t="s">
         <v>666</v>
       </c>
@@ -11478,7 +11418,7 @@
       <c r="F469" s="16"/>
       <c r="G469" s="16"/>
     </row>
-    <row r="470" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="8" t="s">
         <v>666</v>
       </c>
@@ -11495,7 +11435,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="8" t="s">
         <v>666</v>
       </c>
@@ -11512,7 +11452,7 @@
       <c r="F471" s="16"/>
       <c r="G471" s="16"/>
     </row>
-    <row r="472" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="8" t="s">
         <v>666</v>
       </c>
@@ -11529,7 +11469,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="8" t="s">
         <v>666</v>
       </c>
@@ -11546,7 +11486,7 @@
       <c r="F473" s="16"/>
       <c r="G473" s="16"/>
     </row>
-    <row r="474" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="8" t="s">
         <v>666</v>
       </c>
@@ -11563,7 +11503,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="8" t="s">
         <v>666</v>
       </c>
@@ -11580,7 +11520,7 @@
       <c r="F475" s="16"/>
       <c r="G475" s="16"/>
     </row>
-    <row r="476" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="8" t="s">
         <v>666</v>
       </c>
@@ -11597,7 +11537,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="8" t="s">
         <v>666</v>
       </c>
@@ -11614,7 +11554,7 @@
       <c r="F477" s="16"/>
       <c r="G477" s="16"/>
     </row>
-    <row r="478" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="8" t="s">
         <v>666</v>
       </c>
@@ -11631,7 +11571,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="8" t="s">
         <v>666</v>
       </c>
@@ -11648,7 +11588,7 @@
       <c r="F479" s="16"/>
       <c r="G479" s="16"/>
     </row>
-    <row r="480" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="8" t="s">
         <v>666</v>
       </c>
@@ -11665,7 +11605,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="8" t="s">
         <v>666</v>
       </c>
@@ -11682,7 +11622,7 @@
       <c r="F481" s="16"/>
       <c r="G481" s="16"/>
     </row>
-    <row r="482" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="8" t="s">
         <v>666</v>
       </c>
@@ -11699,7 +11639,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="8" t="s">
         <v>666</v>
       </c>
@@ -11716,7 +11656,7 @@
       <c r="F483" s="16"/>
       <c r="G483" s="16"/>
     </row>
-    <row r="484" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="8" t="s">
         <v>666</v>
       </c>
@@ -11733,7 +11673,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="8" t="s">
         <v>699</v>
       </c>
@@ -11750,7 +11690,7 @@
       <c r="F485" s="16"/>
       <c r="G485" s="16"/>
     </row>
-    <row r="486" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="8" t="s">
         <v>699</v>
       </c>
@@ -11767,7 +11707,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="8" t="s">
         <v>699</v>
       </c>
@@ -11784,7 +11724,7 @@
       <c r="F487" s="16"/>
       <c r="G487" s="16"/>
     </row>
-    <row r="488" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="8" t="s">
         <v>699</v>
       </c>
@@ -11801,7 +11741,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="8" t="s">
         <v>699</v>
       </c>
@@ -11818,7 +11758,7 @@
       <c r="F489" s="16"/>
       <c r="G489" s="16"/>
     </row>
-    <row r="490" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="8" t="s">
         <v>699</v>
       </c>
@@ -11837,7 +11777,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="8" t="s">
         <v>699</v>
       </c>
@@ -11854,7 +11794,7 @@
       <c r="F491" s="16"/>
       <c r="G491" s="16"/>
     </row>
-    <row r="492" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="8" t="s">
         <v>699</v>
       </c>
@@ -11871,7 +11811,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="8" t="s">
         <v>699</v>
       </c>
@@ -11888,7 +11828,7 @@
       <c r="F493" s="16"/>
       <c r="G493" s="16"/>
     </row>
-    <row r="494" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="8" t="s">
         <v>699</v>
       </c>
@@ -11905,7 +11845,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="8" t="s">
         <v>699</v>
       </c>
@@ -11922,7 +11862,7 @@
       <c r="F495" s="16"/>
       <c r="G495" s="16"/>
     </row>
-    <row r="496" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="8" t="s">
         <v>666</v>
       </c>
@@ -11939,7 +11879,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="8" t="s">
         <v>699</v>
       </c>
@@ -11956,7 +11896,7 @@
       <c r="F497" s="16"/>
       <c r="G497" s="16"/>
     </row>
-    <row r="498" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="8" t="s">
         <v>699</v>
       </c>
@@ -11973,7 +11913,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="8" t="s">
         <v>699</v>
       </c>
@@ -11990,7 +11930,7 @@
       <c r="F499" s="16"/>
       <c r="G499" s="16"/>
     </row>
-    <row r="500" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="8" t="s">
         <v>699</v>
       </c>
@@ -12007,7 +11947,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="8" t="s">
         <v>699</v>
       </c>
@@ -12024,7 +11964,7 @@
       <c r="F501" s="16"/>
       <c r="G501" s="16"/>
     </row>
-    <row r="502" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="8" t="s">
         <v>699</v>
       </c>
@@ -12041,7 +11981,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="8" t="s">
         <v>666</v>
       </c>
@@ -12058,7 +11998,7 @@
       <c r="F503" s="16"/>
       <c r="G503" s="16"/>
     </row>
-    <row r="504" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="8" t="s">
         <v>699</v>
       </c>
@@ -12075,7 +12015,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="8" t="s">
         <v>666</v>
       </c>
@@ -12092,7 +12032,7 @@
       <c r="F505" s="16"/>
       <c r="G505" s="16"/>
     </row>
-    <row r="506" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="8" t="s">
         <v>666</v>
       </c>
@@ -12109,7 +12049,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="8" t="s">
         <v>666</v>
       </c>
@@ -12126,7 +12066,7 @@
       <c r="F507" s="16"/>
       <c r="G507" s="16"/>
     </row>
-    <row r="508" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="8" t="s">
         <v>666</v>
       </c>
@@ -12143,7 +12083,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="8" t="s">
         <v>666</v>
       </c>
@@ -12160,7 +12100,7 @@
       <c r="F509" s="16"/>
       <c r="G509" s="16"/>
     </row>
-    <row r="510" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="8" t="s">
         <v>666</v>
       </c>
@@ -12177,7 +12117,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="8" t="s">
         <v>666</v>
       </c>
@@ -12194,7 +12134,7 @@
       <c r="F511" s="16"/>
       <c r="G511" s="16"/>
     </row>
-    <row r="512" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="8" t="s">
         <v>666</v>
       </c>
@@ -12211,7 +12151,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="8" t="s">
         <v>666</v>
       </c>
@@ -12228,7 +12168,7 @@
       <c r="F513" s="16"/>
       <c r="G513" s="16"/>
     </row>
-    <row r="514" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="8" t="s">
         <v>666</v>
       </c>
@@ -12245,7 +12185,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="8" t="s">
         <v>666</v>
       </c>
@@ -12262,7 +12202,7 @@
       <c r="F515" s="16"/>
       <c r="G515" s="16"/>
     </row>
-    <row r="516" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="8" t="s">
         <v>666</v>
       </c>
@@ -12279,7 +12219,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="8" t="s">
         <v>666</v>
       </c>
@@ -12296,7 +12236,7 @@
       <c r="F517" s="16"/>
       <c r="G517" s="16"/>
     </row>
-    <row r="518" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="8" t="s">
         <v>666</v>
       </c>
@@ -12313,7 +12253,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="8" t="s">
         <v>666</v>
       </c>
@@ -12330,7 +12270,7 @@
       <c r="F519" s="16"/>
       <c r="G519" s="16"/>
     </row>
-    <row r="520" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="8" t="s">
         <v>666</v>
       </c>
@@ -12347,7 +12287,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="8" t="s">
         <v>666</v>
       </c>
@@ -12364,7 +12304,7 @@
       <c r="F521" s="16"/>
       <c r="G521" s="16"/>
     </row>
-    <row r="522" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="8" t="s">
         <v>699</v>
       </c>
@@ -12381,7 +12321,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="8" t="s">
         <v>699</v>
       </c>
@@ -12398,7 +12338,7 @@
       <c r="F523" s="16"/>
       <c r="G523" s="16"/>
     </row>
-    <row r="524" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="8" t="s">
         <v>699</v>
       </c>
@@ -12415,7 +12355,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="8" t="s">
         <v>699</v>
       </c>
@@ -12432,7 +12372,7 @@
       <c r="F525" s="16"/>
       <c r="G525" s="16"/>
     </row>
-    <row r="526" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="8" t="s">
         <v>699</v>
       </c>
@@ -12449,7 +12389,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="8" t="s">
         <v>699</v>
       </c>
@@ -12466,7 +12406,7 @@
       <c r="F527" s="16"/>
       <c r="G527" s="16"/>
     </row>
-    <row r="528" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="8" t="s">
         <v>699</v>
       </c>
@@ -12483,7 +12423,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="8" t="s">
         <v>699</v>
       </c>
@@ -12500,7 +12440,7 @@
       <c r="F529" s="16"/>
       <c r="G529" s="16"/>
     </row>
-    <row r="530" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="8" t="s">
         <v>699</v>
       </c>
@@ -12517,7 +12457,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="8" t="s">
         <v>699</v>
       </c>
@@ -12534,7 +12474,7 @@
       <c r="F531" s="16"/>
       <c r="G531" s="16"/>
     </row>
-    <row r="532" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="8" t="s">
         <v>699</v>
       </c>
@@ -12551,7 +12491,7 @@
       <c r="F532" s="16"/>
       <c r="G532" s="16"/>
     </row>
-    <row r="533" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="8" t="s">
         <v>699</v>
       </c>
@@ -12568,7 +12508,7 @@
       <c r="F533" s="16"/>
       <c r="G533" s="16"/>
     </row>
-    <row r="534" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="8" t="s">
         <v>699</v>
       </c>
@@ -12587,7 +12527,7 @@
       <c r="F534" s="16"/>
       <c r="G534" s="16"/>
     </row>
-    <row r="535" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="8" t="s">
         <v>699</v>
       </c>
@@ -12606,7 +12546,7 @@
       <c r="F535" s="16"/>
       <c r="G535" s="16"/>
     </row>
-    <row r="536" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="8" t="s">
         <v>699</v>
       </c>
@@ -12625,7 +12565,7 @@
       <c r="F536" s="16"/>
       <c r="G536" s="16"/>
     </row>
-    <row r="537" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="8" t="s">
         <v>699</v>
       </c>
@@ -12644,7 +12584,7 @@
       <c r="F537" s="16"/>
       <c r="G537" s="16"/>
     </row>
-    <row r="538" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="8" t="s">
         <v>699</v>
       </c>
@@ -12663,7 +12603,7 @@
       <c r="F538" s="16"/>
       <c r="G538" s="16"/>
     </row>
-    <row r="539" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="8" t="s">
         <v>699</v>
       </c>
@@ -12682,7 +12622,7 @@
       <c r="F539" s="16"/>
       <c r="G539" s="16"/>
     </row>
-    <row r="540" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="8" t="s">
         <v>699</v>
       </c>
@@ -12701,7 +12641,7 @@
       <c r="F540" s="16"/>
       <c r="G540" s="16"/>
     </row>
-    <row r="541" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="8" t="s">
         <v>699</v>
       </c>
@@ -12720,7 +12660,7 @@
       <c r="F541" s="16"/>
       <c r="G541" s="16"/>
     </row>
-    <row r="542" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="8" t="s">
         <v>699</v>
       </c>
@@ -12739,7 +12679,7 @@
       <c r="F542" s="16"/>
       <c r="G542" s="16"/>
     </row>
-    <row r="543" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="8" t="s">
         <v>699</v>
       </c>
@@ -12758,7 +12698,7 @@
       <c r="F543" s="16"/>
       <c r="G543" s="16"/>
     </row>
-    <row r="544" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="8" t="s">
         <v>699</v>
       </c>
@@ -12777,7 +12717,7 @@
       <c r="F544" s="16"/>
       <c r="G544" s="16"/>
     </row>
-    <row r="545" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="8" t="s">
         <v>699</v>
       </c>
@@ -12796,7 +12736,7 @@
       <c r="F545" s="16"/>
       <c r="G545" s="16"/>
     </row>
-    <row r="546" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="8" t="s">
         <v>699</v>
       </c>
@@ -12815,7 +12755,7 @@
       <c r="F546" s="16"/>
       <c r="G546" s="16"/>
     </row>
-    <row r="547" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="8" t="s">
         <v>699</v>
       </c>
@@ -12834,7 +12774,7 @@
       <c r="F547" s="16"/>
       <c r="G547" s="16"/>
     </row>
-    <row r="548" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="8" t="s">
         <v>699</v>
       </c>
@@ -12853,7 +12793,7 @@
       <c r="F548" s="16"/>
       <c r="G548" s="16"/>
     </row>
-    <row r="549" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="8" t="s">
         <v>699</v>
       </c>
@@ -12872,7 +12812,7 @@
       <c r="F549" s="16"/>
       <c r="G549" s="16"/>
     </row>
-    <row r="550" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="8" t="s">
         <v>699</v>
       </c>
@@ -12891,7 +12831,7 @@
       <c r="F550" s="16"/>
       <c r="G550" s="16"/>
     </row>
-    <row r="551" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="8" t="s">
         <v>699</v>
       </c>
@@ -12910,7 +12850,7 @@
       <c r="F551" s="16"/>
       <c r="G551" s="16"/>
     </row>
-    <row r="552" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="8" t="s">
         <v>699</v>
       </c>
@@ -12929,7 +12869,7 @@
       <c r="F552" s="16"/>
       <c r="G552" s="16"/>
     </row>
-    <row r="553" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="8" t="s">
         <v>699</v>
       </c>
@@ -12948,7 +12888,7 @@
       <c r="F553" s="16"/>
       <c r="G553" s="16"/>
     </row>
-    <row r="554" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="8" t="s">
         <v>699</v>
       </c>
@@ -12967,7 +12907,7 @@
       <c r="F554" s="16"/>
       <c r="G554" s="16"/>
     </row>
-    <row r="555" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="8" t="s">
         <v>699</v>
       </c>
@@ -12986,7 +12926,7 @@
       <c r="F555" s="16"/>
       <c r="G555" s="16"/>
     </row>
-    <row r="556" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="8" t="s">
         <v>699</v>
       </c>
@@ -13005,7 +12945,7 @@
       <c r="F556" s="16"/>
       <c r="G556" s="16"/>
     </row>
-    <row r="557" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="8" t="s">
         <v>699</v>
       </c>
@@ -13024,7 +12964,7 @@
       <c r="F557" s="16"/>
       <c r="G557" s="16"/>
     </row>
-    <row r="558" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="8" t="s">
         <v>699</v>
       </c>
@@ -13043,7 +12983,7 @@
       <c r="F558" s="16"/>
       <c r="G558" s="16"/>
     </row>
-    <row r="559" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="8" t="s">
         <v>699</v>
       </c>
@@ -13062,7 +13002,7 @@
       <c r="F559" s="16"/>
       <c r="G559" s="16"/>
     </row>
-    <row r="560" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="8" t="s">
         <v>699</v>
       </c>
@@ -13081,7 +13021,7 @@
       <c r="F560" s="16"/>
       <c r="G560" s="16"/>
     </row>
-    <row r="561" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="8" t="s">
         <v>699</v>
       </c>
@@ -13100,7 +13040,7 @@
       <c r="F561" s="16"/>
       <c r="G561" s="16"/>
     </row>
-    <row r="562" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="8" t="s">
         <v>699</v>
       </c>
@@ -13119,7 +13059,7 @@
       <c r="F562" s="16"/>
       <c r="G562" s="16"/>
     </row>
-    <row r="563" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="8" t="s">
         <v>699</v>
       </c>
@@ -13138,7 +13078,7 @@
       <c r="F563" s="16"/>
       <c r="G563" s="16"/>
     </row>
-    <row r="564" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="8" t="s">
         <v>699</v>
       </c>
@@ -13157,7 +13097,7 @@
       <c r="F564" s="16"/>
       <c r="G564" s="16"/>
     </row>
-    <row r="565" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="8" t="s">
         <v>699</v>
       </c>
@@ -13176,7 +13116,7 @@
       <c r="F565" s="16"/>
       <c r="G565" s="16"/>
     </row>
-    <row r="566" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="8" t="s">
         <v>699</v>
       </c>
@@ -13195,7 +13135,7 @@
       <c r="F566" s="16"/>
       <c r="G566" s="16"/>
     </row>
-    <row r="567" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="8" t="s">
         <v>699</v>
       </c>
@@ -13214,7 +13154,7 @@
       <c r="F567" s="16"/>
       <c r="G567" s="16"/>
     </row>
-    <row r="568" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="8" t="s">
         <v>699</v>
       </c>
@@ -13233,7 +13173,7 @@
       <c r="F568" s="16"/>
       <c r="G568" s="16"/>
     </row>
-    <row r="569" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="8" t="s">
         <v>699</v>
       </c>
@@ -13252,7 +13192,7 @@
       <c r="F569" s="16"/>
       <c r="G569" s="16"/>
     </row>
-    <row r="570" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="8" t="s">
         <v>699</v>
       </c>
@@ -13271,7 +13211,7 @@
       <c r="F570" s="16"/>
       <c r="G570" s="16"/>
     </row>
-    <row r="571" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="8" t="s">
         <v>699</v>
       </c>
@@ -13290,7 +13230,7 @@
       <c r="F571" s="16"/>
       <c r="G571" s="16"/>
     </row>
-    <row r="572" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="8" t="s">
         <v>699</v>
       </c>
@@ -13309,7 +13249,7 @@
       <c r="F572" s="16"/>
       <c r="G572" s="16"/>
     </row>
-    <row r="573" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="8" t="s">
         <v>699</v>
       </c>
@@ -13328,7 +13268,7 @@
       <c r="F573" s="16"/>
       <c r="G573" s="16"/>
     </row>
-    <row r="574" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="8" t="s">
         <v>699</v>
       </c>
@@ -13347,7 +13287,7 @@
       <c r="F574" s="16"/>
       <c r="G574" s="16"/>
     </row>
-    <row r="575" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="8" t="s">
         <v>699</v>
       </c>
@@ -13366,7 +13306,7 @@
       <c r="F575" s="16"/>
       <c r="G575" s="16"/>
     </row>
-    <row r="576" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="8" t="s">
         <v>699</v>
       </c>
@@ -13385,7 +13325,7 @@
       <c r="F576" s="16"/>
       <c r="G576" s="16"/>
     </row>
-    <row r="577" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="8" t="s">
         <v>699</v>
       </c>
@@ -13404,7 +13344,7 @@
       <c r="F577" s="16"/>
       <c r="G577" s="16"/>
     </row>
-    <row r="578" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="8" t="s">
         <v>699</v>
       </c>
@@ -13423,7 +13363,7 @@
       <c r="F578" s="16"/>
       <c r="G578" s="16"/>
     </row>
-    <row r="579" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="8" t="s">
         <v>699</v>
       </c>
@@ -13442,7 +13382,7 @@
       <c r="F579" s="16"/>
       <c r="G579" s="16"/>
     </row>
-    <row r="580" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="8" t="s">
         <v>699</v>
       </c>
@@ -13461,7 +13401,7 @@
       <c r="F580" s="16"/>
       <c r="G580" s="16"/>
     </row>
-    <row r="581" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="8" t="s">
         <v>699</v>
       </c>
@@ -13480,7 +13420,7 @@
       <c r="F581" s="16"/>
       <c r="G581" s="16"/>
     </row>
-    <row r="582" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="8" t="s">
         <v>699</v>
       </c>
@@ -13499,7 +13439,7 @@
       <c r="F582" s="16"/>
       <c r="G582" s="16"/>
     </row>
-    <row r="583" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="8" t="s">
         <v>699</v>
       </c>
@@ -13518,7 +13458,7 @@
       <c r="F583" s="16"/>
       <c r="G583" s="16"/>
     </row>
-    <row r="584" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="8" t="s">
         <v>699</v>
       </c>
@@ -13537,7 +13477,7 @@
       <c r="F584" s="16"/>
       <c r="G584" s="16"/>
     </row>
-    <row r="585" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="8" t="s">
         <v>699</v>
       </c>
@@ -13556,7 +13496,7 @@
       <c r="F585" s="16"/>
       <c r="G585" s="16"/>
     </row>
-    <row r="586" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="8" t="s">
         <v>699</v>
       </c>
@@ -13575,7 +13515,7 @@
       <c r="F586" s="16"/>
       <c r="G586" s="16"/>
     </row>
-    <row r="587" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="8" t="s">
         <v>699</v>
       </c>
@@ -13594,7 +13534,7 @@
       <c r="F587" s="16"/>
       <c r="G587" s="16"/>
     </row>
-    <row r="588" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="8" t="s">
         <v>699</v>
       </c>
@@ -13613,7 +13553,7 @@
       <c r="F588" s="16"/>
       <c r="G588" s="16"/>
     </row>
-    <row r="589" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="8" t="s">
         <v>699</v>
       </c>
@@ -13632,7 +13572,7 @@
       <c r="F589" s="16"/>
       <c r="G589" s="16"/>
     </row>
-    <row r="590" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="13" t="s">
         <v>699</v>
       </c>
@@ -13651,1212 +13591,1025 @@
       <c r="F590" s="16"/>
       <c r="G590" s="16"/>
     </row>
-    <row r="591" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A591" s="18" t="s">
+    <row r="591" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B591" s="19" t="s">
+      <c r="B591" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C591" s="20" t="s">
+      <c r="C591" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="D591" s="21"/>
-    </row>
-    <row r="592" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A592" s="18" t="s">
+      <c r="D591" s="20"/>
+    </row>
+    <row r="592" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B592" s="19" t="s">
+      <c r="B592" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C592" s="20" t="s">
+      <c r="C592" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="D592" s="21"/>
-    </row>
-    <row r="593" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A593" s="18" t="s">
+      <c r="D592" s="20"/>
+    </row>
+    <row r="593" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B593" s="19" t="s">
+      <c r="B593" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C593" s="20" t="s">
+      <c r="C593" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="D593" s="21"/>
-    </row>
-    <row r="594" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A594" s="18" t="s">
+      <c r="D593" s="20"/>
+    </row>
+    <row r="594" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B594" s="19" t="s">
+      <c r="B594" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C594" s="20" t="s">
+      <c r="C594" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="D594" s="21"/>
-    </row>
-    <row r="595" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A595" s="18" t="s">
+      <c r="D594" s="20"/>
+    </row>
+    <row r="595" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B595" s="19" t="s">
+      <c r="B595" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C595" s="20" t="s">
+      <c r="C595" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="D595" s="21"/>
-    </row>
-    <row r="596" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A596" s="18" t="s">
+      <c r="D595" s="20"/>
+    </row>
+    <row r="596" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B596" s="19" t="s">
+      <c r="B596" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C596" s="20" t="s">
+      <c r="C596" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="D596" s="21"/>
-    </row>
-    <row r="597" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A597" s="18" t="s">
+      <c r="D596" s="20"/>
+    </row>
+    <row r="597" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B597" s="19" t="s">
+      <c r="B597" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C597" s="20" t="s">
+      <c r="C597" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="D597" s="21"/>
-    </row>
-    <row r="598" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A598" s="18" t="s">
+      <c r="D597" s="20"/>
+    </row>
+    <row r="598" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B598" s="19" t="s">
+      <c r="B598" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C598" s="20" t="s">
+      <c r="C598" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="D598" s="21"/>
-    </row>
-    <row r="599" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A599" s="18" t="s">
+      <c r="D598" s="20"/>
+    </row>
+    <row r="599" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B599" s="19" t="s">
+      <c r="B599" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C599" s="20" t="s">
+      <c r="C599" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="D599" s="21"/>
-    </row>
-    <row r="600" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A600" s="18" t="s">
+      <c r="D599" s="20"/>
+    </row>
+    <row r="600" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B600" s="19" t="s">
+      <c r="B600" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C600" s="20" t="s">
+      <c r="C600" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="D600" s="21"/>
-    </row>
-    <row r="601" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A601" s="18" t="s">
+      <c r="D600" s="20"/>
+    </row>
+    <row r="601" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B601" s="19" t="s">
+      <c r="B601" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C601" s="20" t="s">
+      <c r="C601" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="D601" s="21"/>
-    </row>
-    <row r="602" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A602" s="18" t="s">
+      <c r="D601" s="20"/>
+    </row>
+    <row r="602" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B602" s="19" t="s">
+      <c r="B602" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C602" s="20" t="s">
+      <c r="C602" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="D602" s="21"/>
-    </row>
-    <row r="603" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A603" s="18" t="s">
+      <c r="D602" s="20"/>
+    </row>
+    <row r="603" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B603" s="19" t="s">
+      <c r="B603" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C603" s="20" t="s">
+      <c r="C603" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="D603" s="21"/>
-    </row>
-    <row r="604" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A604" s="18" t="s">
+      <c r="D603" s="20"/>
+    </row>
+    <row r="604" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B604" s="19" t="s">
+      <c r="B604" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C604" s="20" t="s">
+      <c r="C604" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="D604" s="21"/>
-    </row>
-    <row r="605" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A605" s="18" t="s">
+      <c r="D604" s="20"/>
+    </row>
+    <row r="605" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B605" s="19" t="s">
+      <c r="B605" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C605" s="20" t="s">
+      <c r="C605" s="19" t="s">
         <v>824</v>
       </c>
-      <c r="D605" s="21"/>
-    </row>
-    <row r="606" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A606" s="18" t="s">
+      <c r="D605" s="20"/>
+    </row>
+    <row r="606" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B606" s="19" t="s">
+      <c r="B606" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C606" s="20" t="s">
+      <c r="C606" s="19" t="s">
         <v>825</v>
       </c>
-      <c r="D606" s="21"/>
-    </row>
-    <row r="607" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A607" s="18" t="s">
+      <c r="D606" s="20"/>
+    </row>
+    <row r="607" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B607" s="19" t="s">
+      <c r="B607" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C607" s="20" t="s">
+      <c r="C607" s="19" t="s">
         <v>826</v>
       </c>
-      <c r="D607" s="21"/>
-    </row>
-    <row r="608" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A608" s="18" t="s">
+      <c r="D607" s="20"/>
+    </row>
+    <row r="608" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B608" s="19" t="s">
+      <c r="B608" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C608" s="20" t="s">
+      <c r="C608" s="19" t="s">
         <v>827</v>
       </c>
-      <c r="D608" s="21"/>
-    </row>
-    <row r="609" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A609" s="18" t="s">
+      <c r="D608" s="20"/>
+    </row>
+    <row r="609" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B609" s="19" t="s">
+      <c r="B609" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C609" s="20" t="s">
+      <c r="C609" s="19" t="s">
         <v>828</v>
       </c>
-      <c r="D609" s="21"/>
-    </row>
-    <row r="610" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A610" s="18" t="s">
+      <c r="D609" s="20"/>
+    </row>
+    <row r="610" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B610" s="19" t="s">
+      <c r="B610" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C610" s="20" t="s">
+      <c r="C610" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="D610" s="21"/>
-    </row>
-    <row r="611" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A611" s="18" t="s">
+      <c r="D610" s="20"/>
+    </row>
+    <row r="611" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B611" s="19" t="s">
+      <c r="B611" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C611" s="20" t="s">
+      <c r="C611" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="D611" s="21"/>
-    </row>
-    <row r="612" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A612" s="18" t="s">
+      <c r="D611" s="20"/>
+    </row>
+    <row r="612" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B612" s="19" t="s">
+      <c r="B612" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C612" s="20" t="s">
+      <c r="C612" s="19" t="s">
         <v>831</v>
       </c>
-      <c r="D612" s="21"/>
-    </row>
-    <row r="613" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A613" s="18" t="s">
+      <c r="D612" s="20"/>
+    </row>
+    <row r="613" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B613" s="19" t="s">
+      <c r="B613" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C613" s="20" t="s">
+      <c r="C613" s="19" t="s">
         <v>832</v>
       </c>
-      <c r="D613" s="21"/>
-    </row>
-    <row r="614" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A614" s="18" t="s">
+      <c r="D613" s="20"/>
+    </row>
+    <row r="614" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B614" s="19" t="s">
+      <c r="B614" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C614" s="20" t="s">
+      <c r="C614" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="D614" s="21"/>
-    </row>
-    <row r="615" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A615" s="18" t="s">
+      <c r="D614" s="20"/>
+    </row>
+    <row r="615" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B615" s="19" t="s">
+      <c r="B615" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C615" s="20" t="s">
+      <c r="C615" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="D615" s="21"/>
-    </row>
-    <row r="616" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A616" s="18" t="s">
+      <c r="D615" s="20"/>
+    </row>
+    <row r="616" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B616" s="19" t="s">
+      <c r="B616" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C616" s="20" t="s">
+      <c r="C616" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="D616" s="21"/>
-    </row>
-    <row r="617" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A617" s="18" t="s">
+      <c r="D616" s="20"/>
+    </row>
+    <row r="617" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B617" s="19" t="s">
+      <c r="B617" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C617" s="20" t="s">
+      <c r="C617" s="19" t="s">
         <v>836</v>
       </c>
-      <c r="D617" s="21"/>
-    </row>
-    <row r="618" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A618" s="18" t="s">
+      <c r="D617" s="20"/>
+    </row>
+    <row r="618" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B618" s="19" t="s">
+      <c r="B618" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C618" s="20" t="s">
+      <c r="C618" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="D618" s="21"/>
-    </row>
-    <row r="619" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A619" s="18" t="s">
+      <c r="D618" s="20"/>
+    </row>
+    <row r="619" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B619" s="19" t="s">
+      <c r="B619" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C619" s="20" t="s">
+      <c r="C619" s="19" t="s">
         <v>838</v>
       </c>
-      <c r="D619" s="21"/>
-    </row>
-    <row r="620" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A620" s="18" t="s">
+      <c r="D619" s="20"/>
+    </row>
+    <row r="620" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B620" s="19" t="s">
+      <c r="B620" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C620" s="20" t="s">
+      <c r="C620" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="D620" s="21"/>
-    </row>
-    <row r="621" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A621" s="18" t="s">
+      <c r="D620" s="20"/>
+    </row>
+    <row r="621" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B621" s="19" t="s">
+      <c r="B621" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C621" s="20" t="s">
+      <c r="C621" s="19" t="s">
         <v>840</v>
       </c>
-      <c r="D621" s="21"/>
-    </row>
-    <row r="622" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A622" s="18" t="s">
+      <c r="D621" s="20"/>
+    </row>
+    <row r="622" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B622" s="19" t="s">
+      <c r="B622" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C622" s="20" t="s">
+      <c r="C622" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="D622" s="21"/>
-    </row>
-    <row r="623" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A623" s="18" t="s">
+      <c r="D622" s="20"/>
+    </row>
+    <row r="623" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B623" s="19" t="s">
+      <c r="B623" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C623" s="20" t="s">
+      <c r="C623" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="D623" s="21"/>
-    </row>
-    <row r="624" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A624" s="18" t="s">
+      <c r="D623" s="20"/>
+    </row>
+    <row r="624" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B624" s="19" t="s">
+      <c r="B624" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C624" s="20" t="s">
+      <c r="C624" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="D624" s="21"/>
-    </row>
-    <row r="625" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A625" s="18" t="s">
+      <c r="D624" s="20"/>
+    </row>
+    <row r="625" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B625" s="19" t="s">
+      <c r="B625" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C625" s="20" t="s">
+      <c r="C625" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="D625" s="21"/>
-    </row>
-    <row r="626" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A626" s="18" t="s">
+      <c r="D625" s="20"/>
+    </row>
+    <row r="626" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B626" s="19" t="s">
+      <c r="B626" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C626" s="20" t="s">
+      <c r="C626" s="19" t="s">
         <v>845</v>
       </c>
-      <c r="D626" s="21"/>
-    </row>
-    <row r="627" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A627" s="18" t="s">
+      <c r="D626" s="20"/>
+    </row>
+    <row r="627" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B627" s="19" t="s">
+      <c r="B627" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C627" s="20" t="s">
+      <c r="C627" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="D627" s="21"/>
-    </row>
-    <row r="628" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A628" s="18" t="s">
+      <c r="D627" s="20"/>
+    </row>
+    <row r="628" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B628" s="19" t="s">
+      <c r="B628" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C628" s="20" t="s">
+      <c r="C628" s="19" t="s">
         <v>847</v>
       </c>
-      <c r="D628" s="21"/>
-    </row>
-    <row r="629" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A629" s="18" t="s">
+      <c r="D628" s="20"/>
+    </row>
+    <row r="629" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B629" s="19" t="s">
+      <c r="B629" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C629" s="20" t="s">
+      <c r="C629" s="19" t="s">
         <v>848</v>
       </c>
-      <c r="D629" s="21"/>
-    </row>
-    <row r="630" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A630" s="18" t="s">
+      <c r="D629" s="20"/>
+    </row>
+    <row r="630" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B630" s="19" t="s">
+      <c r="B630" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C630" s="20" t="s">
+      <c r="C630" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="D630" s="21"/>
-    </row>
-    <row r="631" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A631" s="18" t="s">
+      <c r="D630" s="20"/>
+    </row>
+    <row r="631" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B631" s="19" t="s">
+      <c r="B631" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C631" s="20" t="s">
+      <c r="C631" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="D631" s="21"/>
-    </row>
-    <row r="632" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A632" s="18" t="s">
+      <c r="D631" s="20"/>
+    </row>
+    <row r="632" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B632" s="19" t="s">
+      <c r="B632" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C632" s="20" t="s">
+      <c r="C632" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="D632" s="21"/>
-    </row>
-    <row r="633" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A633" s="18" t="s">
+      <c r="D632" s="20"/>
+    </row>
+    <row r="633" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B633" s="19" t="s">
+      <c r="B633" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C633" s="20" t="s">
+      <c r="C633" s="19" t="s">
         <v>852</v>
       </c>
-      <c r="D633" s="21"/>
-    </row>
-    <row r="634" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A634" s="18" t="s">
+      <c r="D633" s="20"/>
+    </row>
+    <row r="634" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B634" s="19" t="s">
+      <c r="B634" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C634" s="20" t="s">
+      <c r="C634" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="D634" s="21"/>
-    </row>
-    <row r="635" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A635" s="18" t="s">
+      <c r="D634" s="20"/>
+    </row>
+    <row r="635" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B635" s="19" t="s">
+      <c r="B635" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C635" s="20" t="s">
+      <c r="C635" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="D635" s="21"/>
-    </row>
-    <row r="636" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A636" s="18" t="s">
+      <c r="D635" s="20"/>
+    </row>
+    <row r="636" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B636" s="19" t="s">
+      <c r="B636" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C636" s="20" t="s">
+      <c r="C636" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="D636" s="21"/>
-    </row>
-    <row r="637" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A637" s="18" t="s">
+      <c r="D636" s="20"/>
+    </row>
+    <row r="637" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B637" s="19" t="s">
+      <c r="B637" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C637" s="20" t="s">
+      <c r="C637" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="D637" s="21"/>
-    </row>
-    <row r="638" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A638" s="18" t="s">
+      <c r="D637" s="20"/>
+    </row>
+    <row r="638" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B638" s="19" t="s">
+      <c r="B638" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C638" s="20" t="s">
+      <c r="C638" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="D638" s="21"/>
-    </row>
-    <row r="639" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A639" s="18" t="s">
+      <c r="D638" s="20"/>
+    </row>
+    <row r="639" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B639" s="19" t="s">
+      <c r="B639" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C639" s="20" t="s">
+      <c r="C639" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="D639" s="21"/>
-    </row>
-    <row r="640" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A640" s="18" t="s">
+      <c r="D639" s="20"/>
+    </row>
+    <row r="640" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B640" s="19" t="s">
+      <c r="B640" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C640" s="20" t="s">
+      <c r="C640" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="D640" s="21"/>
-    </row>
-    <row r="641" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A641" s="18" t="s">
+      <c r="D640" s="20"/>
+    </row>
+    <row r="641" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B641" s="19" t="s">
+      <c r="B641" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C641" s="20" t="s">
+      <c r="C641" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="D641" s="21"/>
-    </row>
-    <row r="642" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A642" s="18" t="s">
+      <c r="D641" s="20"/>
+    </row>
+    <row r="642" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B642" s="19" t="s">
+      <c r="B642" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C642" s="20" t="s">
+      <c r="C642" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="D642" s="21"/>
-    </row>
-    <row r="643" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A643" s="18" t="s">
+      <c r="D642" s="20"/>
+    </row>
+    <row r="643" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B643" s="19" t="s">
+      <c r="B643" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C643" s="20" t="s">
+      <c r="C643" s="19" t="s">
         <v>862</v>
       </c>
-      <c r="D643" s="21"/>
-    </row>
-    <row r="644" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A644" s="18" t="s">
+      <c r="D643" s="20"/>
+    </row>
+    <row r="644" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B644" s="19" t="s">
+      <c r="B644" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C644" s="20" t="s">
+      <c r="C644" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="D644" s="21"/>
-    </row>
-    <row r="645" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A645" s="18" t="s">
+      <c r="D644" s="20"/>
+    </row>
+    <row r="645" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B645" s="19" t="s">
+      <c r="B645" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C645" s="20" t="s">
+      <c r="C645" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="D645" s="21"/>
-    </row>
-    <row r="646" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A646" s="18" t="s">
+      <c r="D645" s="20"/>
+    </row>
+    <row r="646" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B646" s="19" t="s">
+      <c r="B646" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C646" s="20" t="s">
+      <c r="C646" s="19" t="s">
         <v>865</v>
       </c>
-      <c r="D646" s="21"/>
-    </row>
-    <row r="647" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A647" s="18" t="s">
+      <c r="D646" s="20"/>
+    </row>
+    <row r="647" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B647" s="19" t="s">
+      <c r="B647" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C647" s="20" t="s">
+      <c r="C647" s="19" t="s">
         <v>866</v>
       </c>
-      <c r="D647" s="21"/>
-    </row>
-    <row r="648" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A648" s="18" t="s">
+      <c r="D647" s="20"/>
+    </row>
+    <row r="648" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B648" s="19" t="s">
+      <c r="B648" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C648" s="20" t="s">
+      <c r="C648" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="D648" s="21"/>
-    </row>
-    <row r="649" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A649" s="18" t="s">
+      <c r="D648" s="20"/>
+    </row>
+    <row r="649" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B649" s="19" t="s">
+      <c r="B649" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C649" s="20" t="s">
+      <c r="C649" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="D649" s="21"/>
-    </row>
-    <row r="650" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A650" s="18" t="s">
+      <c r="D649" s="20"/>
+    </row>
+    <row r="650" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B650" s="19" t="s">
+      <c r="B650" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C650" s="20" t="s">
+      <c r="C650" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="D650" s="21"/>
-    </row>
-    <row r="651" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A651" s="18" t="s">
+      <c r="D650" s="20"/>
+    </row>
+    <row r="651" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B651" s="19" t="s">
+      <c r="B651" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C651" s="20" t="s">
+      <c r="C651" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="D651" s="21"/>
-    </row>
-    <row r="652" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A652" s="18" t="s">
+      <c r="D651" s="20"/>
+    </row>
+    <row r="652" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B652" s="19" t="s">
+      <c r="B652" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C652" s="20" t="s">
+      <c r="C652" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="D652" s="21"/>
-    </row>
-    <row r="653" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A653" s="18" t="s">
+      <c r="D652" s="20"/>
+    </row>
+    <row r="653" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B653" s="19" t="s">
+      <c r="B653" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C653" s="20" t="s">
+      <c r="C653" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="D653" s="21"/>
-    </row>
-    <row r="654" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A654" s="18" t="s">
+      <c r="D653" s="20"/>
+    </row>
+    <row r="654" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B654" s="19" t="s">
+      <c r="B654" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C654" s="20" t="s">
+      <c r="C654" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="D654" s="21"/>
-    </row>
-    <row r="655" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A655" s="18" t="s">
+      <c r="D654" s="20"/>
+    </row>
+    <row r="655" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B655" s="19" t="s">
+      <c r="B655" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C655" s="20" t="s">
+      <c r="C655" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="D655" s="21"/>
-    </row>
-    <row r="656" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A656" s="18" t="s">
+      <c r="D655" s="20"/>
+    </row>
+    <row r="656" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B656" s="19" t="s">
+      <c r="B656" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C656" s="20" t="s">
+      <c r="C656" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="D656" s="21"/>
-    </row>
-    <row r="657" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A657" s="18" t="s">
+      <c r="D656" s="20"/>
+    </row>
+    <row r="657" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B657" s="19" t="s">
+      <c r="B657" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C657" s="20" t="s">
+      <c r="C657" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="D657" s="21"/>
-    </row>
-    <row r="658" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A658" s="18" t="s">
+      <c r="D657" s="20"/>
+    </row>
+    <row r="658" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B658" s="19" t="s">
+      <c r="B658" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C658" s="20" t="s">
+      <c r="C658" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="D658" s="21"/>
-    </row>
-    <row r="659" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A659" s="18" t="s">
+      <c r="D658" s="20"/>
+    </row>
+    <row r="659" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B659" s="19" t="s">
+      <c r="B659" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C659" s="20" t="s">
+      <c r="C659" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="D659" s="21"/>
-    </row>
-    <row r="660" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A660" s="18" t="s">
+      <c r="D659" s="20"/>
+    </row>
+    <row r="660" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B660" s="19" t="s">
+      <c r="B660" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C660" s="20" t="s">
+      <c r="C660" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="D660" s="21"/>
-    </row>
-    <row r="661" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A661" s="18" t="s">
+      <c r="D660" s="20"/>
+    </row>
+    <row r="661" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B661" s="19" t="s">
+      <c r="B661" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C661" s="20" t="s">
+      <c r="C661" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="D661" s="21"/>
-    </row>
-    <row r="662" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A662" s="18" t="s">
+      <c r="D661" s="20"/>
+    </row>
+    <row r="662" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B662" s="19" t="s">
+      <c r="B662" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C662" s="20" t="s">
+      <c r="C662" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="D662" s="21"/>
-    </row>
-    <row r="663" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A663" s="18" t="s">
+      <c r="D662" s="20"/>
+    </row>
+    <row r="663" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B663" s="19" t="s">
+      <c r="B663" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C663" s="20" t="s">
+      <c r="C663" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D663" s="21"/>
-    </row>
-    <row r="664" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A664" s="18" t="s">
+      <c r="D663" s="20"/>
+    </row>
+    <row r="664" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B664" s="19" t="s">
+      <c r="B664" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C664" s="20" t="s">
+      <c r="C664" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="D664" s="21"/>
-    </row>
-    <row r="665" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A665" s="18" t="s">
+      <c r="D664" s="20"/>
+    </row>
+    <row r="665" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B665" s="19" t="s">
+      <c r="B665" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C665" s="20" t="s">
+      <c r="C665" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="D665" s="21"/>
-    </row>
-    <row r="666" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A666" s="18" t="s">
+      <c r="D665" s="20"/>
+    </row>
+    <row r="666" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B666" s="19" t="s">
+      <c r="B666" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C666" s="20" t="s">
+      <c r="C666" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="D666" s="21"/>
-    </row>
-    <row r="667" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A667" s="18" t="s">
+      <c r="D666" s="20"/>
+    </row>
+    <row r="667" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B667" s="19" t="s">
+      <c r="B667" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C667" s="20" t="s">
+      <c r="C667" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="D667" s="21"/>
-    </row>
-    <row r="668" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A668" s="18" t="s">
+      <c r="D667" s="20"/>
+    </row>
+    <row r="668" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B668" s="19" t="s">
+      <c r="B668" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C668" s="20" t="s">
+      <c r="C668" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="D668" s="21"/>
-    </row>
-    <row r="669" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A669" s="18" t="s">
+      <c r="D668" s="20"/>
+    </row>
+    <row r="669" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B669" s="19" t="s">
+      <c r="B669" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C669" s="20" t="s">
+      <c r="C669" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="D669" s="21"/>
-    </row>
-    <row r="670" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A670" s="18" t="s">
+      <c r="D669" s="20"/>
+    </row>
+    <row r="670" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B670" s="19" t="s">
+      <c r="B670" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C670" s="20" t="s">
+      <c r="C670" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="D670" s="21"/>
-    </row>
-    <row r="671" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A671" s="18" t="s">
+      <c r="D670" s="20"/>
+    </row>
+    <row r="671" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B671" s="19" t="s">
+      <c r="B671" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C671" s="20" t="s">
+      <c r="C671" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="D671" s="21"/>
-    </row>
-    <row r="672" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A672" s="18" t="s">
+      <c r="D671" s="20"/>
+    </row>
+    <row r="672" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B672" s="19" t="s">
+      <c r="B672" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C672" s="20" t="s">
+      <c r="C672" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="D672" s="21"/>
-    </row>
-    <row r="673" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A673" s="18" t="s">
+      <c r="D672" s="20"/>
+    </row>
+    <row r="673" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B673" s="19" t="s">
+      <c r="B673" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C673" s="20" t="s">
+      <c r="C673" s="19" t="s">
         <v>892</v>
       </c>
-      <c r="D673" s="21"/>
-    </row>
-    <row r="674" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A674" s="18" t="s">
+      <c r="D673" s="20"/>
+    </row>
+    <row r="674" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B674" s="19" t="s">
+      <c r="B674" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C674" s="20" t="s">
+      <c r="C674" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="D674" s="21"/>
-    </row>
-    <row r="675" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A675" s="18" t="s">
+      <c r="D674" s="20"/>
+    </row>
+    <row r="675" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B675" s="19" t="s">
+      <c r="B675" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C675" s="20" t="s">
+      <c r="C675" s="19" t="s">
         <v>894</v>
       </c>
-      <c r="D675" s="21"/>
-    </row>
-    <row r="676" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A676" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B676" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C676" s="24" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A677" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B677" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C677" s="24" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A678" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B678" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C678" s="24" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A679" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B679" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C679" s="24" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B680" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C680" s="24" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="681" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A681" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B681" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C681" s="24" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A682" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B682" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C682" s="24" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A683" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B683" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C683" s="24" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A684" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B684" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C684" s="24" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A685" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B685" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C685" s="24" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A686" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B686" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C686" s="24" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A687" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B687" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C687" s="24" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="688" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A688" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B688" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C688" s="24" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A689" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B689" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C689" s="24" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A690" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B690" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C690" s="24" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A691" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B691" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C691" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A692" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="B692" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C692" s="24" t="s">
-        <v>911</v>
-      </c>
+      <c r="D675" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C591:C675">
@@ -15203,17 +14956,17 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B132BD4-7401-4DC8-A92F-0D275D719FC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="60c28f28-bf1b-4bf6-afa9-1eedf1fa7243"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d35670d1-454e-4581-9c60-3ce39c5d9ee1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d35670d1-454e-4581-9c60-3ce39c5d9ee1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>